--- a/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005754274522191</v>
+        <v>1.002265919133797</v>
       </c>
       <c r="D3">
-        <v>0.9589936346569252</v>
+        <v>0.9913474745797245</v>
       </c>
       <c r="E3">
-        <v>1.001763378925198</v>
+        <v>1.018067579234153</v>
       </c>
       <c r="F3">
         <v>1.005754274522191</v>
       </c>
       <c r="G3">
-        <v>1.018067579234153</v>
+        <v>0.9589936346569252</v>
       </c>
       <c r="H3">
-        <v>0.9913474745797245</v>
+        <v>1.005754274522191</v>
       </c>
       <c r="I3">
-        <v>1.002265919133797</v>
+        <v>0.9589936346569252</v>
       </c>
       <c r="J3">
-        <v>0.9589936346569252</v>
+        <v>1.001763378925198</v>
       </c>
       <c r="K3">
         <v>1.005754274522191</v>
@@ -728,7 +680,7 @@
         <v>0.9963653768419981</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.015451718515925</v>
+        <v>1.004602478315581</v>
       </c>
       <c r="D4">
-        <v>0.9232685089023259</v>
+        <v>0.9828310035630299</v>
       </c>
       <c r="E4">
-        <v>1.003211672257245</v>
+        <v>1.031756846584303</v>
       </c>
       <c r="F4">
         <v>1.015451718515925</v>
       </c>
       <c r="G4">
-        <v>1.031756846584303</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="H4">
-        <v>0.9828310035630299</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="I4">
-        <v>1.004602478315581</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="J4">
-        <v>0.9232685089023259</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="K4">
         <v>1.015451718515925</v>
@@ -766,19 +718,19 @@
         <v>1.003211672257245</v>
       </c>
       <c r="M4">
-        <v>0.9632400905797855</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="N4">
-        <v>0.9632400905797855</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="O4">
-        <v>0.9697703949075337</v>
+        <v>0.9697703949075335</v>
       </c>
       <c r="P4">
-        <v>0.9806439665584987</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="Q4">
-        <v>0.9806439665584987</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="R4">
         <v>0.9893459045478552</v>
@@ -790,7 +742,7 @@
         <v>0.9935203713564017</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030722648009506</v>
+        <v>1.012468809552232</v>
       </c>
       <c r="D5">
-        <v>0.8537943087520603</v>
+        <v>0.965405202247157</v>
       </c>
       <c r="E5">
-        <v>1.002644281096307</v>
+        <v>1.065949862727566</v>
       </c>
       <c r="F5">
         <v>1.030722648009506</v>
       </c>
       <c r="G5">
-        <v>1.065949862727566</v>
+        <v>0.85379430875206</v>
       </c>
       <c r="H5">
-        <v>0.965405202247157</v>
+        <v>1.030722648009506</v>
       </c>
       <c r="I5">
-        <v>1.012468809552232</v>
+        <v>0.85379430875206</v>
       </c>
       <c r="J5">
-        <v>0.8537943087520603</v>
+        <v>1.002644281096307</v>
       </c>
       <c r="K5">
         <v>1.030722648009506</v>
@@ -828,13 +780,13 @@
         <v>1.002644281096307</v>
       </c>
       <c r="M5">
-        <v>0.9282192949241838</v>
+        <v>0.9282192949241836</v>
       </c>
       <c r="N5">
-        <v>0.9282192949241838</v>
+        <v>0.9282192949241836</v>
       </c>
       <c r="O5">
-        <v>0.9406145973651748</v>
+        <v>0.9406145973651747</v>
       </c>
       <c r="P5">
         <v>0.9623870792859576</v>
@@ -852,7 +804,7 @@
         <v>0.9884975187308047</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.024111781054993</v>
+        <v>1.008803464943533</v>
       </c>
       <c r="D6">
-        <v>0.8709815620761839</v>
+        <v>0.9196045223067114</v>
       </c>
       <c r="E6">
-        <v>0.9804797774214382</v>
+        <v>1.207145587193502</v>
       </c>
       <c r="F6">
         <v>1.024111781054993</v>
       </c>
       <c r="G6">
-        <v>1.207145587193502</v>
+        <v>0.8709815620761839</v>
       </c>
       <c r="H6">
-        <v>0.9196045223067114</v>
+        <v>1.024111781054993</v>
       </c>
       <c r="I6">
-        <v>1.008803464943533</v>
+        <v>0.8709815620761839</v>
       </c>
       <c r="J6">
-        <v>0.8709815620761839</v>
+        <v>0.9804797774214382</v>
       </c>
       <c r="K6">
         <v>1.024111781054993</v>
@@ -914,7 +866,7 @@
         <v>1.00185444916606</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,40 +874,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998358709255134</v>
+        <v>1.000669649886545</v>
       </c>
       <c r="D7">
+        <v>0.9988457241124088</v>
+      </c>
+      <c r="E7">
+        <v>0.9998430770736211</v>
+      </c>
+      <c r="F7">
+        <v>0.9998358709255136</v>
+      </c>
+      <c r="G7">
         <v>0.9989591027408606</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9998358709255136</v>
+      </c>
+      <c r="I7">
+        <v>0.9989591027408606</v>
+      </c>
+      <c r="J7">
         <v>1.002627714960082</v>
       </c>
-      <c r="F7">
-        <v>0.9998358709255134</v>
-      </c>
-      <c r="G7">
-        <v>0.9998430770736216</v>
-      </c>
-      <c r="H7">
-        <v>0.9988457241124086</v>
-      </c>
-      <c r="I7">
-        <v>1.000669649886545</v>
-      </c>
-      <c r="J7">
-        <v>0.9989591027408606</v>
-      </c>
       <c r="K7">
-        <v>0.9998358709255134</v>
+        <v>0.9998358709255136</v>
       </c>
       <c r="L7">
         <v>1.002627714960082</v>
       </c>
       <c r="M7">
-        <v>1.000793408850472</v>
+        <v>1.000793408850471</v>
       </c>
       <c r="N7">
-        <v>1.000793408850472</v>
+        <v>1.000793408850471</v>
       </c>
       <c r="O7">
         <v>1.00014418060445</v>
@@ -967,16 +919,16 @@
         <v>1.000474229542152</v>
       </c>
       <c r="R7">
-        <v>1.000314639887992</v>
+        <v>1.000314639887993</v>
       </c>
       <c r="S7">
-        <v>1.000314639887992</v>
+        <v>1.000314639887993</v>
       </c>
       <c r="T7">
         <v>1.000130189949838</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00155465217164</v>
+        <v>1.001568876799525</v>
       </c>
       <c r="D8">
-        <v>0.9961366019112848</v>
+        <v>0.9967198593193883</v>
       </c>
       <c r="E8">
+        <v>0.9995260125399144</v>
+      </c>
+      <c r="F8">
+        <v>1.001554652171641</v>
+      </c>
+      <c r="G8">
+        <v>0.9961366019112841</v>
+      </c>
+      <c r="H8">
+        <v>1.001554652171641</v>
+      </c>
+      <c r="I8">
+        <v>0.9961366019112841</v>
+      </c>
+      <c r="J8">
         <v>1.005731769826528</v>
       </c>
-      <c r="F8">
-        <v>1.00155465217164</v>
-      </c>
-      <c r="G8">
-        <v>0.9995260125399144</v>
-      </c>
-      <c r="H8">
-        <v>0.9967198593193892</v>
-      </c>
-      <c r="I8">
-        <v>1.001568876799526</v>
-      </c>
-      <c r="J8">
-        <v>0.9961366019112848</v>
-      </c>
       <c r="K8">
-        <v>1.00155465217164</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="L8">
         <v>1.005731769826528</v>
@@ -1020,7 +972,7 @@
         <v>1.000934185868906</v>
       </c>
       <c r="O8">
-        <v>0.9995294103524005</v>
+        <v>0.9995294103523999</v>
       </c>
       <c r="P8">
         <v>1.001141007969818</v>
@@ -1038,7 +990,7 @@
         <v>1.000206295428047</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006047211533208</v>
+        <v>1.001394450619055</v>
       </c>
       <c r="D9">
-        <v>0.9949350304362092</v>
+        <v>0.9958840444443563</v>
       </c>
       <c r="E9">
-        <v>1.005927852146783</v>
+        <v>0.9997785639631097</v>
       </c>
       <c r="F9">
         <v>1.006047211533208</v>
       </c>
       <c r="G9">
-        <v>0.9997785639631097</v>
+        <v>0.9949350304362092</v>
       </c>
       <c r="H9">
-        <v>0.9958840444443565</v>
+        <v>1.006047211533208</v>
       </c>
       <c r="I9">
-        <v>1.001394450619055</v>
+        <v>0.9949350304362092</v>
       </c>
       <c r="J9">
-        <v>0.9949350304362092</v>
+        <v>1.005927852146783</v>
       </c>
       <c r="K9">
         <v>1.006047211533208</v>
@@ -1100,7 +1052,7 @@
         <v>1.000661192190454</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0084883656511</v>
+        <v>1.003773518849538</v>
       </c>
       <c r="D10">
-        <v>0.9879334974188255</v>
+        <v>0.9915249611791418</v>
       </c>
       <c r="E10">
-        <v>1.015436630427724</v>
+        <v>1.000096329224391</v>
       </c>
       <c r="F10">
         <v>1.0084883656511</v>
       </c>
       <c r="G10">
-        <v>1.000096329224391</v>
+        <v>0.9879334974188255</v>
       </c>
       <c r="H10">
-        <v>0.9915249611791418</v>
+        <v>1.0084883656511</v>
       </c>
       <c r="I10">
-        <v>1.003773518849538</v>
+        <v>0.9879334974188255</v>
       </c>
       <c r="J10">
-        <v>0.9879334974188255</v>
+        <v>1.015436630427724</v>
       </c>
       <c r="K10">
         <v>1.0084883656511</v>
@@ -1144,7 +1096,7 @@
         <v>1.001685063923275</v>
       </c>
       <c r="O10">
-        <v>0.9982983630085638</v>
+        <v>0.9982983630085637</v>
       </c>
       <c r="P10">
         <v>1.003952831165883</v>
@@ -1162,7 +1114,7 @@
         <v>1.001208883791787</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.027036678651784</v>
+        <v>1.006707985983857</v>
       </c>
       <c r="D11">
-        <v>0.9784051770308507</v>
+        <v>0.9853792246024243</v>
       </c>
       <c r="E11">
-        <v>1.021282562589891</v>
+        <v>0.9958027551889965</v>
       </c>
       <c r="F11">
         <v>1.027036678651784</v>
       </c>
       <c r="G11">
-        <v>0.9958027551889963</v>
+        <v>0.9784051770308507</v>
       </c>
       <c r="H11">
-        <v>0.9853792246024243</v>
+        <v>1.027036678651784</v>
       </c>
       <c r="I11">
-        <v>1.006707985983857</v>
+        <v>0.9784051770308507</v>
       </c>
       <c r="J11">
-        <v>0.9784051770308507</v>
+        <v>1.021282562589891</v>
       </c>
       <c r="K11">
         <v>1.027036678651784</v>
@@ -1224,7 +1176,7 @@
         <v>1.002435730674634</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,40 +1184,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5984672702871598</v>
+        <v>1.02288818006891</v>
       </c>
       <c r="D12">
-        <v>0.5841374478348731</v>
+        <v>1.216302845525289</v>
       </c>
       <c r="E12">
+        <v>0.4809052775899594</v>
+      </c>
+      <c r="F12">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="G12">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="H12">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="I12">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="J12">
         <v>1.209571164467155</v>
       </c>
-      <c r="F12">
-        <v>0.5984672702871598</v>
-      </c>
-      <c r="G12">
-        <v>0.4809052775899595</v>
-      </c>
-      <c r="H12">
-        <v>1.216302845525289</v>
-      </c>
-      <c r="I12">
-        <v>1.02288818006891</v>
-      </c>
-      <c r="J12">
-        <v>0.5841374478348731</v>
-      </c>
       <c r="K12">
-        <v>0.5984672702871598</v>
+        <v>0.59846727028716</v>
       </c>
       <c r="L12">
         <v>1.209571164467155</v>
       </c>
       <c r="M12">
-        <v>0.8968543061510138</v>
+        <v>0.8968543061510137</v>
       </c>
       <c r="N12">
-        <v>0.8968543061510138</v>
+        <v>0.8968543061510137</v>
       </c>
       <c r="O12">
         <v>1.003337152609106</v>
@@ -1286,7 +1238,7 @@
         <v>0.8520453642955578</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.382647780490109</v>
+        <v>0.8611596835495952</v>
       </c>
       <c r="D13">
-        <v>1.824828912055251</v>
+        <v>0.9942876679028495</v>
       </c>
       <c r="E13">
-        <v>0.6130262869623081</v>
+        <v>1.366189381039194</v>
       </c>
       <c r="F13">
         <v>1.382647780490109</v>
       </c>
       <c r="G13">
-        <v>1.366189381039194</v>
+        <v>1.824828912055251</v>
       </c>
       <c r="H13">
-        <v>0.9942876679028499</v>
+        <v>1.382647780490109</v>
       </c>
       <c r="I13">
-        <v>0.861159683549595</v>
+        <v>1.824828912055251</v>
       </c>
       <c r="J13">
-        <v>1.824828912055251</v>
+        <v>0.6130262869623081</v>
       </c>
       <c r="K13">
         <v>1.382647780490109</v>
@@ -1333,10 +1285,10 @@
         <v>1.144047622306803</v>
       </c>
       <c r="P13">
-        <v>1.273500993169222</v>
+        <v>1.273500993169223</v>
       </c>
       <c r="Q13">
-        <v>1.273500993169222</v>
+        <v>1.273500993169223</v>
       </c>
       <c r="R13">
         <v>1.300787689999444</v>
@@ -1348,7 +1300,7 @@
         <v>1.173689951999884</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5945976262097269</v>
+        <v>0.7103990596506989</v>
       </c>
       <c r="D14">
-        <v>2.735571048947276</v>
+        <v>1.431283812425356</v>
       </c>
       <c r="E14">
+        <v>1.398478480001518</v>
+      </c>
+      <c r="F14">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="G14">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="H14">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="I14">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="J14">
         <v>0.804701136168799</v>
       </c>
-      <c r="F14">
-        <v>0.5945976262097269</v>
-      </c>
-      <c r="G14">
-        <v>1.398478480001518</v>
-      </c>
-      <c r="H14">
-        <v>1.431283812425356</v>
-      </c>
-      <c r="I14">
-        <v>0.7103990596506989</v>
-      </c>
-      <c r="J14">
-        <v>2.735571048947276</v>
-      </c>
       <c r="K14">
-        <v>0.5945976262097269</v>
+        <v>0.5945976262097267</v>
       </c>
       <c r="L14">
         <v>0.804701136168799</v>
@@ -1401,16 +1353,16 @@
         <v>1.378289937108601</v>
       </c>
       <c r="R14">
-        <v>1.182366859383882</v>
+        <v>1.182366859383883</v>
       </c>
       <c r="S14">
-        <v>1.182366859383882</v>
+        <v>1.182366859383883</v>
       </c>
       <c r="T14">
-        <v>1.279171860567229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.27917186056723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6602468367868036</v>
+        <v>0.9490714940705147</v>
       </c>
       <c r="D15">
-        <v>0.1357185454287793</v>
+        <v>1.24840634244747</v>
       </c>
       <c r="E15">
-        <v>1.042403390647482</v>
+        <v>0.4967095319502654</v>
       </c>
       <c r="F15">
         <v>0.6602468367868036</v>
       </c>
       <c r="G15">
-        <v>0.4967095319502656</v>
+        <v>0.1357185454287793</v>
       </c>
       <c r="H15">
-        <v>1.24840634244747</v>
+        <v>0.6602468367868036</v>
       </c>
       <c r="I15">
-        <v>0.9490714940705146</v>
+        <v>0.1357185454287793</v>
       </c>
       <c r="J15">
-        <v>0.1357185454287793</v>
+        <v>1.042403390647482</v>
       </c>
       <c r="K15">
         <v>0.6602468367868036</v>
@@ -1472,7 +1424,7 @@
         <v>0.7554260235552192</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9941121656196574</v>
+        <v>1.060664640695199</v>
       </c>
       <c r="D16">
-        <v>1.000637739831507</v>
+        <v>0.8340228785013207</v>
       </c>
       <c r="E16">
-        <v>1.004251836029449</v>
+        <v>1.295015242197499</v>
       </c>
       <c r="F16">
-        <v>0.9941121656196574</v>
+        <v>1.101812555258846</v>
       </c>
       <c r="G16">
-        <v>1.007206079311279</v>
+        <v>0.2602193436082985</v>
       </c>
       <c r="H16">
-        <v>0.9992492143146827</v>
+        <v>1.101812555258846</v>
       </c>
       <c r="I16">
-        <v>0.9994312680817971</v>
+        <v>0.2602193436082985</v>
       </c>
       <c r="J16">
-        <v>1.000637739831507</v>
+        <v>1.045718314257984</v>
       </c>
       <c r="K16">
-        <v>0.9941121656196574</v>
+        <v>1.101812555258846</v>
       </c>
       <c r="L16">
-        <v>1.004251836029449</v>
+        <v>1.045718314257984</v>
       </c>
       <c r="M16">
-        <v>1.002444787930478</v>
+        <v>0.6529688289331413</v>
       </c>
       <c r="N16">
-        <v>1.002444787930478</v>
+        <v>0.6529688289331413</v>
       </c>
       <c r="O16">
-        <v>1.001379596725213</v>
+        <v>0.7133201787892012</v>
       </c>
       <c r="P16">
-        <v>0.9996672471602043</v>
+        <v>0.8025834043750427</v>
       </c>
       <c r="Q16">
-        <v>0.9996672471602043</v>
+        <v>0.8025834043750427</v>
       </c>
       <c r="R16">
-        <v>0.9982784767750675</v>
+        <v>0.8773906920959935</v>
       </c>
       <c r="S16">
-        <v>0.9982784767750675</v>
+        <v>0.8773906920959935</v>
       </c>
       <c r="T16">
-        <v>1.000814717198062</v>
+        <v>0.9329088290865243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006824257966208</v>
+        <v>1.063242740308048</v>
       </c>
       <c r="D17">
-        <v>0.9967241301729542</v>
+        <v>0.8539465717914458</v>
       </c>
       <c r="E17">
-        <v>1.000132208502295</v>
+        <v>1.221286770000021</v>
       </c>
       <c r="F17">
-        <v>1.006824257966208</v>
+        <v>1.040004702552399</v>
       </c>
       <c r="G17">
-        <v>0.9846286275915016</v>
+        <v>0.4556740014503801</v>
       </c>
       <c r="H17">
-        <v>1.000611794393447</v>
+        <v>1.040004702552399</v>
       </c>
       <c r="I17">
-        <v>1.002934481123691</v>
+        <v>0.4556740014503801</v>
       </c>
       <c r="J17">
-        <v>0.9967241301729542</v>
+        <v>1.098048424178347</v>
       </c>
       <c r="K17">
-        <v>1.006824257966208</v>
+        <v>1.040004702552399</v>
       </c>
       <c r="L17">
-        <v>1.000132208502295</v>
+        <v>1.098048424178347</v>
       </c>
       <c r="M17">
-        <v>0.9984281693376249</v>
+        <v>0.7768612128143637</v>
       </c>
       <c r="N17">
-        <v>0.9984281693376249</v>
+        <v>0.7768612128143637</v>
       </c>
       <c r="O17">
-        <v>0.9991560443562323</v>
+        <v>0.8025563324733911</v>
       </c>
       <c r="P17">
-        <v>1.001226865547152</v>
+        <v>0.8645757093937089</v>
       </c>
       <c r="Q17">
-        <v>1.001226865547152</v>
+        <v>0.8645757093937089</v>
       </c>
       <c r="R17">
-        <v>1.002626213651916</v>
+        <v>0.9084329576833814</v>
       </c>
       <c r="S17">
-        <v>1.002626213651916</v>
+        <v>0.9084329576833814</v>
       </c>
       <c r="T17">
-        <v>0.9986425832916828</v>
+        <v>0.9553672017134401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001519704849466</v>
+        <v>1.067284766480969</v>
       </c>
       <c r="D18">
-        <v>0.9889295972725066</v>
+        <v>0.894254771037028</v>
       </c>
       <c r="E18">
-        <v>1.006849784661922</v>
+        <v>1.074072374748223</v>
       </c>
       <c r="F18">
-        <v>1.001519704849466</v>
+        <v>0.9218442249757023</v>
       </c>
       <c r="G18">
-        <v>1.033406481770172</v>
+        <v>0.8458762996388284</v>
       </c>
       <c r="H18">
-        <v>0.9904906187362382</v>
+        <v>0.9218442249757023</v>
       </c>
       <c r="I18">
-        <v>0.9963994745181176</v>
+        <v>0.8458762996388284</v>
       </c>
       <c r="J18">
-        <v>0.9889295972725066</v>
+        <v>1.198155102911077</v>
       </c>
       <c r="K18">
-        <v>1.001519704849466</v>
+        <v>0.9218442249757023</v>
       </c>
       <c r="L18">
-        <v>1.006849784661922</v>
+        <v>1.198155102911077</v>
       </c>
       <c r="M18">
-        <v>0.9978896909672146</v>
+        <v>1.022015701274953</v>
       </c>
       <c r="N18">
-        <v>0.9978896909672146</v>
+        <v>1.022015701274953</v>
       </c>
       <c r="O18">
-        <v>0.9954233335568891</v>
+        <v>0.9794287245289778</v>
       </c>
       <c r="P18">
-        <v>0.9990996955946319</v>
+        <v>0.9886252091752025</v>
       </c>
       <c r="Q18">
-        <v>0.9990996955946319</v>
+        <v>0.9886252091752025</v>
       </c>
       <c r="R18">
-        <v>0.9997046979083405</v>
+        <v>0.9719299631253274</v>
       </c>
       <c r="S18">
-        <v>0.9997046979083405</v>
+        <v>0.9719299631253274</v>
       </c>
       <c r="T18">
-        <v>1.002932610301404</v>
+        <v>1.000247923298638</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.088311079652047</v>
+      </c>
+      <c r="D19">
+        <v>0.892438659576803</v>
+      </c>
+      <c r="E19">
+        <v>1.058813458533614</v>
+      </c>
+      <c r="F19">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="G19">
+        <v>0.7551966887058335</v>
+      </c>
+      <c r="H19">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="I19">
+        <v>0.7551966887058335</v>
+      </c>
+      <c r="J19">
+        <v>1.304647907588511</v>
+      </c>
+      <c r="K19">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="L19">
+        <v>1.304647907588511</v>
+      </c>
+      <c r="M19">
+        <v>1.029922298147172</v>
+      </c>
+      <c r="N19">
+        <v>1.029922298147172</v>
+      </c>
+      <c r="O19">
+        <v>0.9840944186237159</v>
+      </c>
+      <c r="P19">
+        <v>0.9652419802665021</v>
+      </c>
+      <c r="Q19">
+        <v>0.9652419802665023</v>
+      </c>
+      <c r="R19">
+        <v>0.9329018213261673</v>
+      </c>
+      <c r="S19">
+        <v>0.9329018213261673</v>
+      </c>
+      <c r="T19">
+        <v>0.9892148564269951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9994312680817977</v>
+      </c>
+      <c r="D20">
+        <v>0.9992492143146835</v>
+      </c>
+      <c r="E20">
+        <v>1.007206079311279</v>
+      </c>
+      <c r="F20">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="G20">
+        <v>1.000637739831506</v>
+      </c>
+      <c r="H20">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="I20">
+        <v>1.000637739831506</v>
+      </c>
+      <c r="J20">
+        <v>1.004251836029449</v>
+      </c>
+      <c r="K20">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="L20">
+        <v>1.004251836029449</v>
+      </c>
+      <c r="M20">
+        <v>1.002444787930477</v>
+      </c>
+      <c r="N20">
+        <v>1.002444787930477</v>
+      </c>
+      <c r="O20">
+        <v>1.001379596725213</v>
+      </c>
+      <c r="P20">
+        <v>0.9996672471602041</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996672471602039</v>
+      </c>
+      <c r="R20">
+        <v>0.9982784767750674</v>
+      </c>
+      <c r="S20">
+        <v>0.9982784767750674</v>
+      </c>
+      <c r="T20">
+        <v>1.000814717198062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.002934481123692</v>
+      </c>
+      <c r="D21">
+        <v>1.000611794393447</v>
+      </c>
+      <c r="E21">
+        <v>0.9846286275915022</v>
+      </c>
+      <c r="F21">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="G21">
+        <v>0.9967241301729532</v>
+      </c>
+      <c r="H21">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="I21">
+        <v>0.9967241301729532</v>
+      </c>
+      <c r="J21">
+        <v>1.000132208502296</v>
+      </c>
+      <c r="K21">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="L21">
+        <v>1.000132208502296</v>
+      </c>
+      <c r="M21">
+        <v>0.9984281693376246</v>
+      </c>
+      <c r="N21">
+        <v>0.9984281693376246</v>
+      </c>
+      <c r="O21">
+        <v>0.9991560443562322</v>
+      </c>
+      <c r="P21">
+        <v>1.001226865547152</v>
+      </c>
+      <c r="Q21">
+        <v>1.001226865547152</v>
+      </c>
+      <c r="R21">
+        <v>1.002626213651916</v>
+      </c>
+      <c r="S21">
+        <v>1.002626213651916</v>
+      </c>
+      <c r="T21">
+        <v>0.9986425832916831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9963994745181173</v>
+      </c>
+      <c r="D22">
+        <v>0.9904906187362382</v>
+      </c>
+      <c r="E22">
+        <v>1.033406481770172</v>
+      </c>
+      <c r="F22">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="G22">
+        <v>0.9889295972725064</v>
+      </c>
+      <c r="H22">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="I22">
+        <v>0.9889295972725064</v>
+      </c>
+      <c r="J22">
+        <v>1.006849784661923</v>
+      </c>
+      <c r="K22">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="L22">
+        <v>1.006849784661923</v>
+      </c>
+      <c r="M22">
+        <v>0.9978896909672146</v>
+      </c>
+      <c r="N22">
+        <v>0.9978896909672146</v>
+      </c>
+      <c r="O22">
+        <v>0.9954233335568891</v>
+      </c>
+      <c r="P22">
+        <v>0.9990996955946319</v>
+      </c>
+      <c r="Q22">
+        <v>0.9990996955946319</v>
+      </c>
+      <c r="R22">
+        <v>0.9997046979083405</v>
+      </c>
+      <c r="S22">
+        <v>0.9997046979083405</v>
+      </c>
+      <c r="T22">
+        <v>1.002932610301404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9908887825636929</v>
+      </c>
+      <c r="D23">
+        <v>0.9850854225340466</v>
+      </c>
+      <c r="E23">
+        <v>1.109032631746224</v>
+      </c>
+      <c r="F23">
         <v>0.9437301400631247</v>
       </c>
-      <c r="D19">
+      <c r="G23">
         <v>0.9749107297452246</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9437301400631247</v>
+      </c>
+      <c r="I23">
+        <v>0.9749107297452246</v>
+      </c>
+      <c r="J23">
         <v>1.020304890870746</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>0.9437301400631247</v>
       </c>
-      <c r="G19">
-        <v>1.109032631746224</v>
-      </c>
-      <c r="H19">
-        <v>0.9850854225340466</v>
-      </c>
-      <c r="I19">
-        <v>0.9908887825636929</v>
-      </c>
-      <c r="J19">
-        <v>0.9749107297452246</v>
-      </c>
-      <c r="K19">
-        <v>0.9437301400631247</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.020304890870746</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9976078103079853</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9976078103079853</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9934336810500057</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9796485868930317</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9796485868930317</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9706689751855549</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9706689751855549</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.003992099587176</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002265919133797</v>
+        <v>1.089184066541786</v>
       </c>
       <c r="D3">
-        <v>0.9913474745797245</v>
+        <v>0.8627141658298659</v>
       </c>
       <c r="E3">
-        <v>1.018067579234153</v>
+        <v>1.06493140891026</v>
       </c>
       <c r="F3">
-        <v>1.005754274522191</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="G3">
-        <v>0.9589936346569252</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="H3">
-        <v>1.005754274522191</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="I3">
-        <v>0.9589936346569252</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="J3">
-        <v>1.001763378925198</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="K3">
-        <v>1.005754274522191</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="L3">
-        <v>1.001763378925198</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="M3">
-        <v>0.9803785067910616</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="N3">
-        <v>0.9803785067910616</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="O3">
-        <v>0.9840348293872826</v>
+        <v>0.9750937890719499</v>
       </c>
       <c r="P3">
-        <v>0.9888370960347713</v>
+        <v>0.9942155872842803</v>
       </c>
       <c r="Q3">
-        <v>0.9888370960347713</v>
+        <v>0.9942155872842804</v>
       </c>
       <c r="R3">
-        <v>0.9930663906566262</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="S3">
-        <v>0.9930663906566262</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="T3">
-        <v>0.9963653768419981</v>
+        <v>0.9999127338557922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004602478315581</v>
+        <v>1.078379413605104</v>
       </c>
       <c r="D4">
-        <v>0.9828310035630299</v>
+        <v>0.8796806085476887</v>
       </c>
       <c r="E4">
-        <v>1.031756846584303</v>
+        <v>1.069723957293298</v>
       </c>
       <c r="F4">
-        <v>1.015451718515925</v>
+        <v>0.9156130572265182</v>
       </c>
       <c r="G4">
-        <v>0.9232685089023258</v>
+        <v>0.8246714301054373</v>
       </c>
       <c r="H4">
-        <v>1.015451718515925</v>
+        <v>0.9156130572265182</v>
       </c>
       <c r="I4">
-        <v>0.9232685089023258</v>
+        <v>0.8246714301054373</v>
       </c>
       <c r="J4">
-        <v>1.003211672257245</v>
+        <v>1.231318937960777</v>
       </c>
       <c r="K4">
-        <v>1.015451718515925</v>
+        <v>0.9156130572265182</v>
       </c>
       <c r="L4">
-        <v>1.003211672257245</v>
+        <v>1.231318937960777</v>
       </c>
       <c r="M4">
-        <v>0.9632400905797854</v>
+        <v>1.027995184033107</v>
       </c>
       <c r="N4">
-        <v>0.9632400905797854</v>
+        <v>1.027995184033107</v>
       </c>
       <c r="O4">
-        <v>0.9697703949075335</v>
+        <v>0.9785569922046342</v>
       </c>
       <c r="P4">
-        <v>0.9806439665584986</v>
+        <v>0.9905344750975774</v>
       </c>
       <c r="Q4">
-        <v>0.9806439665584986</v>
+        <v>0.9905344750975774</v>
       </c>
       <c r="R4">
-        <v>0.9893459045478552</v>
+        <v>0.9718041206298126</v>
       </c>
       <c r="S4">
-        <v>0.9893459045478552</v>
+        <v>0.9718041206298126</v>
       </c>
       <c r="T4">
-        <v>0.9935203713564017</v>
+        <v>0.9998979007898038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.012468809552232</v>
+        <v>1.109385333045821</v>
       </c>
       <c r="D5">
-        <v>0.965405202247157</v>
+        <v>0.8304565510334232</v>
       </c>
       <c r="E5">
-        <v>1.065949862727566</v>
+        <v>1.055368953127871</v>
       </c>
       <c r="F5">
-        <v>1.030722648009506</v>
+        <v>0.9302040742345019</v>
       </c>
       <c r="G5">
-        <v>0.85379430875206</v>
+        <v>0.7480070043456338</v>
       </c>
       <c r="H5">
-        <v>1.030722648009506</v>
+        <v>0.9302040742345019</v>
       </c>
       <c r="I5">
-        <v>0.85379430875206</v>
+        <v>0.7480070043456338</v>
       </c>
       <c r="J5">
-        <v>1.002644281096307</v>
+        <v>1.328108722291107</v>
       </c>
       <c r="K5">
-        <v>1.030722648009506</v>
+        <v>0.9302040742345019</v>
       </c>
       <c r="L5">
-        <v>1.002644281096307</v>
+        <v>1.328108722291107</v>
       </c>
       <c r="M5">
-        <v>0.9282192949241836</v>
+        <v>1.03805786331837</v>
       </c>
       <c r="N5">
-        <v>0.9282192949241836</v>
+        <v>1.03805786331837</v>
       </c>
       <c r="O5">
-        <v>0.9406145973651747</v>
+        <v>0.9688574258900545</v>
       </c>
       <c r="P5">
-        <v>0.9623870792859576</v>
+        <v>1.002106600290414</v>
       </c>
       <c r="Q5">
-        <v>0.9623870792859576</v>
+        <v>1.002106600290414</v>
       </c>
       <c r="R5">
-        <v>0.9794709714668446</v>
+        <v>0.9841309687764361</v>
       </c>
       <c r="S5">
-        <v>0.9794709714668446</v>
+        <v>0.9841309687764361</v>
       </c>
       <c r="T5">
-        <v>0.9884975187308047</v>
+        <v>1.000255106346393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.008803464943533</v>
+        <v>1.127145922159092</v>
       </c>
       <c r="D6">
-        <v>0.9196045223067114</v>
+        <v>0.8001370647102278</v>
       </c>
       <c r="E6">
-        <v>1.207145587193502</v>
+        <v>1.048362177127272</v>
       </c>
       <c r="F6">
-        <v>1.024111781054993</v>
+        <v>0.9439386713750003</v>
       </c>
       <c r="G6">
-        <v>0.8709815620761839</v>
+        <v>0.7011871995485907</v>
       </c>
       <c r="H6">
-        <v>1.024111781054993</v>
+        <v>0.9439386713750003</v>
       </c>
       <c r="I6">
-        <v>0.8709815620761839</v>
+        <v>0.7011871995485907</v>
       </c>
       <c r="J6">
-        <v>0.9804797774214382</v>
+        <v>1.389774307818182</v>
       </c>
       <c r="K6">
-        <v>1.024111781054993</v>
+        <v>0.9439386713750003</v>
       </c>
       <c r="L6">
-        <v>0.9804797774214382</v>
+        <v>1.389774307818182</v>
       </c>
       <c r="M6">
-        <v>0.925730669748811</v>
+        <v>1.045480753683386</v>
       </c>
       <c r="N6">
-        <v>0.925730669748811</v>
+        <v>1.045480753683386</v>
       </c>
       <c r="O6">
-        <v>0.9236886206014444</v>
+        <v>0.9636995240256668</v>
       </c>
       <c r="P6">
-        <v>0.9585243735175384</v>
+        <v>1.011633392913924</v>
       </c>
       <c r="Q6">
-        <v>0.9585243735175384</v>
+        <v>1.011633392913924</v>
       </c>
       <c r="R6">
-        <v>0.9749212254019021</v>
+        <v>0.9947097125291933</v>
       </c>
       <c r="S6">
-        <v>0.9749212254019021</v>
+        <v>0.9947097125291933</v>
       </c>
       <c r="T6">
-        <v>1.00185444916606</v>
+        <v>1.001757557123061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000669649886545</v>
+        <v>1.485647714370472</v>
       </c>
       <c r="D7">
-        <v>0.9988457241124088</v>
+        <v>0.1147831899980971</v>
       </c>
       <c r="E7">
-        <v>0.9998430770736211</v>
+        <v>0.2709221480471854</v>
       </c>
       <c r="F7">
-        <v>0.9998358709255136</v>
+        <v>2.872955302085674</v>
       </c>
       <c r="G7">
-        <v>0.9989591027408606</v>
+        <v>0.001171061395304388</v>
       </c>
       <c r="H7">
-        <v>0.9998358709255136</v>
+        <v>2.872955302085674</v>
       </c>
       <c r="I7">
-        <v>0.9989591027408606</v>
+        <v>0.001171061395304388</v>
       </c>
       <c r="J7">
-        <v>1.002627714960082</v>
+        <v>1.246635974031427</v>
       </c>
       <c r="K7">
-        <v>0.9998358709255136</v>
+        <v>2.872955302085674</v>
       </c>
       <c r="L7">
-        <v>1.002627714960082</v>
+        <v>1.246635974031427</v>
       </c>
       <c r="M7">
-        <v>1.000793408850471</v>
+        <v>0.6239035177133656</v>
       </c>
       <c r="N7">
-        <v>1.000793408850471</v>
+        <v>0.6239035177133656</v>
       </c>
       <c r="O7">
-        <v>1.00014418060445</v>
+        <v>0.4541967418082761</v>
       </c>
       <c r="P7">
-        <v>1.000474229542152</v>
+        <v>1.373587445837468</v>
       </c>
       <c r="Q7">
-        <v>1.000474229542152</v>
+        <v>1.373587445837468</v>
       </c>
       <c r="R7">
-        <v>1.000314639887993</v>
+        <v>1.74842940989952</v>
       </c>
       <c r="S7">
-        <v>1.000314639887993</v>
+        <v>1.74842940989952</v>
       </c>
       <c r="T7">
-        <v>1.000130189949838</v>
+        <v>0.99868589832136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001568876799525</v>
+        <v>1.485133695755427</v>
       </c>
       <c r="D8">
-        <v>0.9967198593193883</v>
+        <v>0.1145913781313107</v>
       </c>
       <c r="E8">
-        <v>0.9995260125399144</v>
+        <v>0.2725048918582184</v>
       </c>
       <c r="F8">
-        <v>1.001554652171641</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="G8">
-        <v>0.9961366019112841</v>
+        <v>0.001181544848868478</v>
       </c>
       <c r="H8">
-        <v>1.001554652171641</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="I8">
-        <v>0.9961366019112841</v>
+        <v>0.001181544848868478</v>
       </c>
       <c r="J8">
-        <v>1.005731769826528</v>
+        <v>1.254026928356074</v>
       </c>
       <c r="K8">
-        <v>1.001554652171641</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="L8">
-        <v>1.005731769826528</v>
+        <v>1.254026928356074</v>
       </c>
       <c r="M8">
-        <v>1.000934185868906</v>
+        <v>0.6276042366024712</v>
       </c>
       <c r="N8">
-        <v>1.000934185868906</v>
+        <v>0.6276042366024712</v>
       </c>
       <c r="O8">
-        <v>0.9995294103523999</v>
+        <v>0.4565999504454177</v>
       </c>
       <c r="P8">
-        <v>1.001141007969818</v>
+        <v>1.375179229352313</v>
       </c>
       <c r="Q8">
-        <v>1.001141007969818</v>
+        <v>1.375179229352313</v>
       </c>
       <c r="R8">
-        <v>1.001244419020273</v>
+        <v>1.748966725727234</v>
       </c>
       <c r="S8">
-        <v>1.001244419020273</v>
+        <v>1.748966725727234</v>
       </c>
       <c r="T8">
-        <v>1.000206295428047</v>
+        <v>0.9996279423003158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001394450619055</v>
+        <v>1.48582905931876</v>
       </c>
       <c r="D9">
-        <v>0.9958840444443563</v>
+        <v>0.1144453615568636</v>
       </c>
       <c r="E9">
-        <v>0.9997785639631097</v>
+        <v>0.2749502070863447</v>
       </c>
       <c r="F9">
-        <v>1.006047211533208</v>
+        <v>2.858881684752884</v>
       </c>
       <c r="G9">
-        <v>0.9949350304362092</v>
+        <v>0.001194541805110452</v>
       </c>
       <c r="H9">
-        <v>1.006047211533208</v>
+        <v>2.858881684752884</v>
       </c>
       <c r="I9">
-        <v>0.9949350304362092</v>
+        <v>0.001194541805110452</v>
       </c>
       <c r="J9">
-        <v>1.005927852146783</v>
+        <v>1.265433141760343</v>
       </c>
       <c r="K9">
-        <v>1.006047211533208</v>
+        <v>2.858881684752884</v>
       </c>
       <c r="L9">
-        <v>1.005927852146783</v>
+        <v>1.265433141760343</v>
       </c>
       <c r="M9">
-        <v>1.000431441291496</v>
+        <v>0.6333138417827268</v>
       </c>
       <c r="N9">
-        <v>1.000431441291496</v>
+        <v>0.6333138417827268</v>
       </c>
       <c r="O9">
-        <v>0.9989156423424496</v>
+        <v>0.460357681707439</v>
       </c>
       <c r="P9">
-        <v>1.0023033647054</v>
+        <v>1.375169789439446</v>
       </c>
       <c r="Q9">
-        <v>1.0023033647054</v>
+        <v>1.375169789439446</v>
       </c>
       <c r="R9">
-        <v>1.003239326412352</v>
+        <v>1.746097763267805</v>
       </c>
       <c r="S9">
-        <v>1.003239326412352</v>
+        <v>1.746097763267805</v>
       </c>
       <c r="T9">
-        <v>1.000661192190454</v>
+        <v>1.000122332713384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003773518849538</v>
+        <v>1.478782951442906</v>
       </c>
       <c r="D10">
-        <v>0.9915249611791418</v>
+        <v>0.1136332520533769</v>
       </c>
       <c r="E10">
-        <v>1.000096329224391</v>
+        <v>0.2770954044136741</v>
       </c>
       <c r="F10">
-        <v>1.0084883656511</v>
+        <v>2.881583371482412</v>
       </c>
       <c r="G10">
-        <v>0.9879334974188255</v>
+        <v>0.001212344033631746</v>
       </c>
       <c r="H10">
-        <v>1.0084883656511</v>
+        <v>2.881583371482412</v>
       </c>
       <c r="I10">
-        <v>0.9879334974188255</v>
+        <v>0.001212344033631746</v>
       </c>
       <c r="J10">
-        <v>1.015436630427724</v>
+        <v>1.275551935452537</v>
       </c>
       <c r="K10">
-        <v>1.0084883656511</v>
+        <v>2.881583371482412</v>
       </c>
       <c r="L10">
-        <v>1.015436630427724</v>
+        <v>1.275551935452537</v>
       </c>
       <c r="M10">
-        <v>1.001685063923275</v>
+        <v>0.6383821397430846</v>
       </c>
       <c r="N10">
-        <v>1.001685063923275</v>
+        <v>0.6383821397430846</v>
       </c>
       <c r="O10">
-        <v>0.9982983630085637</v>
+        <v>0.4634658438465153</v>
       </c>
       <c r="P10">
-        <v>1.003952831165883</v>
+        <v>1.386115883656194</v>
       </c>
       <c r="Q10">
-        <v>1.003952831165883</v>
+        <v>1.386115883656194</v>
       </c>
       <c r="R10">
-        <v>1.005086714787187</v>
+        <v>1.759982755612748</v>
       </c>
       <c r="S10">
-        <v>1.005086714787187</v>
+        <v>1.759982755612748</v>
       </c>
       <c r="T10">
-        <v>1.001208883791787</v>
+        <v>1.00464320981309</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.006707985983857</v>
+        <v>1.004712181349749</v>
       </c>
       <c r="D11">
-        <v>0.9853792246024243</v>
+        <v>0.9875867253588344</v>
       </c>
       <c r="E11">
-        <v>0.9958027551889965</v>
+        <v>1.01028089876252</v>
       </c>
       <c r="F11">
-        <v>1.027036678651784</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="G11">
-        <v>0.9784051770308507</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="H11">
-        <v>1.027036678651784</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="I11">
-        <v>0.9784051770308507</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="J11">
-        <v>1.021282562589891</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="K11">
-        <v>1.027036678651784</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="L11">
-        <v>1.021282562589891</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="M11">
-        <v>0.9998438698103711</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="N11">
-        <v>0.9998438698103711</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="O11">
-        <v>0.9950223214077222</v>
+        <v>0.9803829080657861</v>
       </c>
       <c r="P11">
-        <v>1.008908139424175</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="Q11">
-        <v>1.008908139424175</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="R11">
-        <v>1.013440274231078</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="S11">
-        <v>1.013440274231078</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="T11">
-        <v>1.002435730674634</v>
+        <v>0.996011391663859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.02288818006891</v>
+        <v>1.004344379872895</v>
       </c>
       <c r="D12">
-        <v>1.216302845525289</v>
+        <v>0.9914054386744333</v>
       </c>
       <c r="E12">
-        <v>0.4809052775899594</v>
+        <v>1.004069137170442</v>
       </c>
       <c r="F12">
-        <v>0.59846727028716</v>
+        <v>1.009506314811544</v>
       </c>
       <c r="G12">
-        <v>0.584137447834873</v>
+        <v>0.9753003539539387</v>
       </c>
       <c r="H12">
-        <v>0.59846727028716</v>
+        <v>1.009506314811544</v>
       </c>
       <c r="I12">
-        <v>0.584137447834873</v>
+        <v>0.9753003539539387</v>
       </c>
       <c r="J12">
-        <v>1.209571164467155</v>
+        <v>1.003481810324627</v>
       </c>
       <c r="K12">
-        <v>0.59846727028716</v>
+        <v>1.009506314811544</v>
       </c>
       <c r="L12">
-        <v>1.209571164467155</v>
+        <v>1.003481810324627</v>
       </c>
       <c r="M12">
-        <v>0.8968543061510137</v>
+        <v>0.9893910821392827</v>
       </c>
       <c r="N12">
-        <v>0.8968543061510137</v>
+        <v>0.9893910821392827</v>
       </c>
       <c r="O12">
-        <v>1.003337152609106</v>
+        <v>0.9900625343176662</v>
       </c>
       <c r="P12">
-        <v>0.7973919608630625</v>
+        <v>0.9960961596967031</v>
       </c>
       <c r="Q12">
-        <v>0.7973919608630625</v>
+        <v>0.9960961596967031</v>
       </c>
       <c r="R12">
-        <v>0.7476607882190869</v>
+        <v>0.9994486984754132</v>
       </c>
       <c r="S12">
-        <v>0.7476607882190869</v>
+        <v>0.9994486984754132</v>
       </c>
       <c r="T12">
-        <v>0.8520453642955578</v>
+        <v>0.9980179058013131</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8611596835495952</v>
+        <v>1.017189818311496</v>
       </c>
       <c r="D13">
-        <v>0.9942876679028495</v>
+        <v>0.9728692699489548</v>
       </c>
       <c r="E13">
-        <v>1.366189381039194</v>
+        <v>1.015065855993516</v>
       </c>
       <c r="F13">
-        <v>1.382647780490109</v>
+        <v>1.018754677581857</v>
       </c>
       <c r="G13">
-        <v>1.824828912055251</v>
+        <v>0.913908255770745</v>
       </c>
       <c r="H13">
-        <v>1.382647780490109</v>
+        <v>1.018754677581857</v>
       </c>
       <c r="I13">
-        <v>1.824828912055251</v>
+        <v>0.913908255770745</v>
       </c>
       <c r="J13">
-        <v>0.6130262869623081</v>
+        <v>1.010679432087455</v>
       </c>
       <c r="K13">
-        <v>1.382647780490109</v>
+        <v>1.018754677581857</v>
       </c>
       <c r="L13">
-        <v>0.6130262869623081</v>
+        <v>1.010679432087455</v>
       </c>
       <c r="M13">
-        <v>1.21892759950878</v>
+        <v>0.9622938439291001</v>
       </c>
       <c r="N13">
-        <v>1.21892759950878</v>
+        <v>0.9622938439291001</v>
       </c>
       <c r="O13">
-        <v>1.144047622306803</v>
+        <v>0.9658189859357184</v>
       </c>
       <c r="P13">
-        <v>1.273500993169223</v>
+        <v>0.9811141218133522</v>
       </c>
       <c r="Q13">
-        <v>1.273500993169223</v>
+        <v>0.9811141218133522</v>
       </c>
       <c r="R13">
-        <v>1.300787689999444</v>
+        <v>0.9905242607554783</v>
       </c>
       <c r="S13">
-        <v>1.300787689999444</v>
+        <v>0.9905242607554783</v>
       </c>
       <c r="T13">
-        <v>1.173689951999884</v>
+        <v>0.9914112182823374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7103990596506989</v>
+        <v>1.009139135836471</v>
       </c>
       <c r="D14">
-        <v>1.431283812425356</v>
+        <v>0.9783340022178549</v>
       </c>
       <c r="E14">
-        <v>1.398478480001518</v>
+        <v>1.040297596647201</v>
       </c>
       <c r="F14">
-        <v>0.5945976262097267</v>
+        <v>1.023861878375248</v>
       </c>
       <c r="G14">
-        <v>2.735571048947277</v>
+        <v>0.8869734851909696</v>
       </c>
       <c r="H14">
-        <v>0.5945976262097267</v>
+        <v>1.023861878375248</v>
       </c>
       <c r="I14">
-        <v>2.735571048947277</v>
+        <v>0.8869734851909696</v>
       </c>
       <c r="J14">
-        <v>0.804701136168799</v>
+        <v>1.008806965424201</v>
       </c>
       <c r="K14">
-        <v>0.5945976262097267</v>
+        <v>1.023861878375248</v>
       </c>
       <c r="L14">
-        <v>0.804701136168799</v>
+        <v>1.008806965424201</v>
       </c>
       <c r="M14">
-        <v>1.770136092558038</v>
+        <v>0.9478902253075852</v>
       </c>
       <c r="N14">
-        <v>1.770136092558038</v>
+        <v>0.9478902253075852</v>
       </c>
       <c r="O14">
-        <v>1.65718533251381</v>
+        <v>0.9580381509443417</v>
       </c>
       <c r="P14">
-        <v>1.378289937108601</v>
+        <v>0.9732141096634729</v>
       </c>
       <c r="Q14">
-        <v>1.378289937108601</v>
+        <v>0.9732141096634729</v>
       </c>
       <c r="R14">
-        <v>1.182366859383883</v>
+        <v>0.9858760518414167</v>
       </c>
       <c r="S14">
-        <v>1.182366859383883</v>
+        <v>0.9858760518414167</v>
       </c>
       <c r="T14">
-        <v>1.27917186056723</v>
+        <v>0.9912355106153243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9490714940705147</v>
+        <v>1.002265919133797</v>
       </c>
       <c r="D15">
-        <v>1.24840634244747</v>
+        <v>0.9913474745797245</v>
       </c>
       <c r="E15">
-        <v>0.4967095319502654</v>
+        <v>1.018067579234153</v>
       </c>
       <c r="F15">
-        <v>0.6602468367868036</v>
+        <v>1.005754274522191</v>
       </c>
       <c r="G15">
-        <v>0.1357185454287793</v>
+        <v>0.9589936346569252</v>
       </c>
       <c r="H15">
-        <v>0.6602468367868036</v>
+        <v>1.005754274522191</v>
       </c>
       <c r="I15">
-        <v>0.1357185454287793</v>
+        <v>0.9589936346569252</v>
       </c>
       <c r="J15">
-        <v>1.042403390647482</v>
+        <v>1.001763378925198</v>
       </c>
       <c r="K15">
-        <v>0.6602468367868036</v>
+        <v>1.005754274522191</v>
       </c>
       <c r="L15">
-        <v>1.042403390647482</v>
+        <v>1.001763378925198</v>
       </c>
       <c r="M15">
-        <v>0.5890609680381308</v>
+        <v>0.9803785067910616</v>
       </c>
       <c r="N15">
-        <v>0.5890609680381308</v>
+        <v>0.9803785067910616</v>
       </c>
       <c r="O15">
-        <v>0.8088427595079105</v>
+        <v>0.9840348293872826</v>
       </c>
       <c r="P15">
-        <v>0.612789590954355</v>
+        <v>0.9888370960347713</v>
       </c>
       <c r="Q15">
-        <v>0.612789590954355</v>
+        <v>0.9888370960347713</v>
       </c>
       <c r="R15">
-        <v>0.6246539024124672</v>
+        <v>0.9930663906566262</v>
       </c>
       <c r="S15">
-        <v>0.6246539024124672</v>
+        <v>0.9930663906566262</v>
       </c>
       <c r="T15">
-        <v>0.7554260235552192</v>
+        <v>0.9963653768419981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.060664640695199</v>
+        <v>1.004602478315581</v>
       </c>
       <c r="D16">
-        <v>0.8340228785013207</v>
+        <v>0.9828310035630299</v>
       </c>
       <c r="E16">
-        <v>1.295015242197499</v>
+        <v>1.031756846584303</v>
       </c>
       <c r="F16">
-        <v>1.101812555258846</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="G16">
-        <v>0.2602193436082985</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="H16">
-        <v>1.101812555258846</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="I16">
-        <v>0.2602193436082985</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="J16">
-        <v>1.045718314257984</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="K16">
-        <v>1.101812555258846</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="L16">
-        <v>1.045718314257984</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="M16">
-        <v>0.6529688289331413</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="N16">
-        <v>0.6529688289331413</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="O16">
-        <v>0.7133201787892012</v>
+        <v>0.9697703949075335</v>
       </c>
       <c r="P16">
-        <v>0.8025834043750427</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="Q16">
-        <v>0.8025834043750427</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="R16">
-        <v>0.8773906920959935</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="S16">
-        <v>0.8773906920959935</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="T16">
-        <v>0.9329088290865243</v>
+        <v>0.9935203713564017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.063242740308048</v>
+        <v>1.012468809552232</v>
       </c>
       <c r="D17">
-        <v>0.8539465717914458</v>
+        <v>0.965405202247157</v>
       </c>
       <c r="E17">
-        <v>1.221286770000021</v>
+        <v>1.065949862727566</v>
       </c>
       <c r="F17">
-        <v>1.040004702552399</v>
+        <v>1.030722648009506</v>
       </c>
       <c r="G17">
-        <v>0.4556740014503801</v>
+        <v>0.85379430875206</v>
       </c>
       <c r="H17">
-        <v>1.040004702552399</v>
+        <v>1.030722648009506</v>
       </c>
       <c r="I17">
-        <v>0.4556740014503801</v>
+        <v>0.85379430875206</v>
       </c>
       <c r="J17">
-        <v>1.098048424178347</v>
+        <v>1.002644281096307</v>
       </c>
       <c r="K17">
-        <v>1.040004702552399</v>
+        <v>1.030722648009506</v>
       </c>
       <c r="L17">
-        <v>1.098048424178347</v>
+        <v>1.002644281096307</v>
       </c>
       <c r="M17">
-        <v>0.7768612128143637</v>
+        <v>0.9282192949241836</v>
       </c>
       <c r="N17">
-        <v>0.7768612128143637</v>
+        <v>0.9282192949241836</v>
       </c>
       <c r="O17">
-        <v>0.8025563324733911</v>
+        <v>0.9406145973651747</v>
       </c>
       <c r="P17">
-        <v>0.8645757093937089</v>
+        <v>0.9623870792859576</v>
       </c>
       <c r="Q17">
-        <v>0.8645757093937089</v>
+        <v>0.9623870792859576</v>
       </c>
       <c r="R17">
-        <v>0.9084329576833814</v>
+        <v>0.9794709714668446</v>
       </c>
       <c r="S17">
-        <v>0.9084329576833814</v>
+        <v>0.9794709714668446</v>
       </c>
       <c r="T17">
-        <v>0.9553672017134401</v>
+        <v>0.9884975187308047</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.067284766480969</v>
+        <v>1.008803464943533</v>
       </c>
       <c r="D18">
-        <v>0.894254771037028</v>
+        <v>0.9196045223067114</v>
       </c>
       <c r="E18">
-        <v>1.074072374748223</v>
+        <v>1.207145587193502</v>
       </c>
       <c r="F18">
-        <v>0.9218442249757023</v>
+        <v>1.024111781054993</v>
       </c>
       <c r="G18">
-        <v>0.8458762996388284</v>
+        <v>0.8709815620761839</v>
       </c>
       <c r="H18">
-        <v>0.9218442249757023</v>
+        <v>1.024111781054993</v>
       </c>
       <c r="I18">
-        <v>0.8458762996388284</v>
+        <v>0.8709815620761839</v>
       </c>
       <c r="J18">
-        <v>1.198155102911077</v>
+        <v>0.9804797774214382</v>
       </c>
       <c r="K18">
-        <v>0.9218442249757023</v>
+        <v>1.024111781054993</v>
       </c>
       <c r="L18">
-        <v>1.198155102911077</v>
+        <v>0.9804797774214382</v>
       </c>
       <c r="M18">
-        <v>1.022015701274953</v>
+        <v>0.925730669748811</v>
       </c>
       <c r="N18">
-        <v>1.022015701274953</v>
+        <v>0.925730669748811</v>
       </c>
       <c r="O18">
-        <v>0.9794287245289778</v>
+        <v>0.9236886206014444</v>
       </c>
       <c r="P18">
-        <v>0.9886252091752025</v>
+        <v>0.9585243735175384</v>
       </c>
       <c r="Q18">
-        <v>0.9886252091752025</v>
+        <v>0.9585243735175384</v>
       </c>
       <c r="R18">
-        <v>0.9719299631253274</v>
+        <v>0.9749212254019021</v>
       </c>
       <c r="S18">
-        <v>0.9719299631253274</v>
+        <v>0.9749212254019021</v>
       </c>
       <c r="T18">
-        <v>1.000247923298638</v>
+        <v>1.00185444916606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.088311079652047</v>
+        <v>1.000669649886545</v>
       </c>
       <c r="D19">
-        <v>0.892438659576803</v>
+        <v>0.9988457241124088</v>
       </c>
       <c r="E19">
-        <v>1.058813458533614</v>
+        <v>0.9998430770736211</v>
       </c>
       <c r="F19">
-        <v>0.835881344505162</v>
+        <v>0.9998358709255136</v>
       </c>
       <c r="G19">
-        <v>0.7551966887058335</v>
+        <v>0.9989591027408606</v>
       </c>
       <c r="H19">
-        <v>0.835881344505162</v>
+        <v>0.9998358709255136</v>
       </c>
       <c r="I19">
-        <v>0.7551966887058335</v>
+        <v>0.9989591027408606</v>
       </c>
       <c r="J19">
-        <v>1.304647907588511</v>
+        <v>1.002627714960082</v>
       </c>
       <c r="K19">
-        <v>0.835881344505162</v>
+        <v>0.9998358709255136</v>
       </c>
       <c r="L19">
-        <v>1.304647907588511</v>
+        <v>1.002627714960082</v>
       </c>
       <c r="M19">
-        <v>1.029922298147172</v>
+        <v>1.000793408850471</v>
       </c>
       <c r="N19">
-        <v>1.029922298147172</v>
+        <v>1.000793408850471</v>
       </c>
       <c r="O19">
-        <v>0.9840944186237159</v>
+        <v>1.00014418060445</v>
       </c>
       <c r="P19">
-        <v>0.9652419802665021</v>
+        <v>1.000474229542152</v>
       </c>
       <c r="Q19">
-        <v>0.9652419802665023</v>
+        <v>1.000474229542152</v>
       </c>
       <c r="R19">
-        <v>0.9329018213261673</v>
+        <v>1.000314639887993</v>
       </c>
       <c r="S19">
-        <v>0.9329018213261673</v>
+        <v>1.000314639887993</v>
       </c>
       <c r="T19">
-        <v>0.9892148564269951</v>
+        <v>1.000130189949838</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9994312680817977</v>
+        <v>1.001568876799525</v>
       </c>
       <c r="D20">
-        <v>0.9992492143146835</v>
+        <v>0.9967198593193883</v>
       </c>
       <c r="E20">
-        <v>1.007206079311279</v>
+        <v>0.9995260125399144</v>
       </c>
       <c r="F20">
-        <v>0.9941121656196578</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="G20">
-        <v>1.000637739831506</v>
+        <v>0.9961366019112841</v>
       </c>
       <c r="H20">
-        <v>0.9941121656196578</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="I20">
-        <v>1.000637739831506</v>
+        <v>0.9961366019112841</v>
       </c>
       <c r="J20">
-        <v>1.004251836029449</v>
+        <v>1.005731769826528</v>
       </c>
       <c r="K20">
-        <v>0.9941121656196578</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="L20">
-        <v>1.004251836029449</v>
+        <v>1.005731769826528</v>
       </c>
       <c r="M20">
-        <v>1.002444787930477</v>
+        <v>1.000934185868906</v>
       </c>
       <c r="N20">
-        <v>1.002444787930477</v>
+        <v>1.000934185868906</v>
       </c>
       <c r="O20">
-        <v>1.001379596725213</v>
+        <v>0.9995294103523999</v>
       </c>
       <c r="P20">
-        <v>0.9996672471602041</v>
+        <v>1.001141007969818</v>
       </c>
       <c r="Q20">
-        <v>0.9996672471602039</v>
+        <v>1.001141007969818</v>
       </c>
       <c r="R20">
-        <v>0.9982784767750674</v>
+        <v>1.001244419020273</v>
       </c>
       <c r="S20">
-        <v>0.9982784767750674</v>
+        <v>1.001244419020273</v>
       </c>
       <c r="T20">
-        <v>1.000814717198062</v>
+        <v>1.000206295428047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002934481123692</v>
+        <v>1.001394450619055</v>
       </c>
       <c r="D21">
-        <v>1.000611794393447</v>
+        <v>0.9958840444443563</v>
       </c>
       <c r="E21">
-        <v>0.9846286275915022</v>
+        <v>0.9997785639631097</v>
       </c>
       <c r="F21">
-        <v>1.006824257966208</v>
+        <v>1.006047211533208</v>
       </c>
       <c r="G21">
-        <v>0.9967241301729532</v>
+        <v>0.9949350304362092</v>
       </c>
       <c r="H21">
-        <v>1.006824257966208</v>
+        <v>1.006047211533208</v>
       </c>
       <c r="I21">
-        <v>0.9967241301729532</v>
+        <v>0.9949350304362092</v>
       </c>
       <c r="J21">
-        <v>1.000132208502296</v>
+        <v>1.005927852146783</v>
       </c>
       <c r="K21">
-        <v>1.006824257966208</v>
+        <v>1.006047211533208</v>
       </c>
       <c r="L21">
-        <v>1.000132208502296</v>
+        <v>1.005927852146783</v>
       </c>
       <c r="M21">
-        <v>0.9984281693376246</v>
+        <v>1.000431441291496</v>
       </c>
       <c r="N21">
-        <v>0.9984281693376246</v>
+        <v>1.000431441291496</v>
       </c>
       <c r="O21">
-        <v>0.9991560443562322</v>
+        <v>0.9989156423424496</v>
       </c>
       <c r="P21">
-        <v>1.001226865547152</v>
+        <v>1.0023033647054</v>
       </c>
       <c r="Q21">
-        <v>1.001226865547152</v>
+        <v>1.0023033647054</v>
       </c>
       <c r="R21">
-        <v>1.002626213651916</v>
+        <v>1.003239326412352</v>
       </c>
       <c r="S21">
-        <v>1.002626213651916</v>
+        <v>1.003239326412352</v>
       </c>
       <c r="T21">
-        <v>0.9986425832916831</v>
+        <v>1.000661192190454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9963994745181173</v>
+        <v>1.003773518849538</v>
       </c>
       <c r="D22">
-        <v>0.9904906187362382</v>
+        <v>0.9915249611791418</v>
       </c>
       <c r="E22">
-        <v>1.033406481770172</v>
+        <v>1.000096329224391</v>
       </c>
       <c r="F22">
-        <v>1.001519704849466</v>
+        <v>1.0084883656511</v>
       </c>
       <c r="G22">
-        <v>0.9889295972725064</v>
+        <v>0.9879334974188255</v>
       </c>
       <c r="H22">
-        <v>1.001519704849466</v>
+        <v>1.0084883656511</v>
       </c>
       <c r="I22">
-        <v>0.9889295972725064</v>
+        <v>0.9879334974188255</v>
       </c>
       <c r="J22">
-        <v>1.006849784661923</v>
+        <v>1.015436630427724</v>
       </c>
       <c r="K22">
-        <v>1.001519704849466</v>
+        <v>1.0084883656511</v>
       </c>
       <c r="L22">
-        <v>1.006849784661923</v>
+        <v>1.015436630427724</v>
       </c>
       <c r="M22">
-        <v>0.9978896909672146</v>
+        <v>1.001685063923275</v>
       </c>
       <c r="N22">
-        <v>0.9978896909672146</v>
+        <v>1.001685063923275</v>
       </c>
       <c r="O22">
-        <v>0.9954233335568891</v>
+        <v>0.9982983630085637</v>
       </c>
       <c r="P22">
-        <v>0.9990996955946319</v>
+        <v>1.003952831165883</v>
       </c>
       <c r="Q22">
-        <v>0.9990996955946319</v>
+        <v>1.003952831165883</v>
       </c>
       <c r="R22">
-        <v>0.9997046979083405</v>
+        <v>1.005086714787187</v>
       </c>
       <c r="S22">
-        <v>0.9997046979083405</v>
+        <v>1.005086714787187</v>
       </c>
       <c r="T22">
-        <v>1.002932610301404</v>
+        <v>1.001208883791787</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.006707985983857</v>
+      </c>
+      <c r="D23">
+        <v>0.9853792246024243</v>
+      </c>
+      <c r="E23">
+        <v>0.9958027551889965</v>
+      </c>
+      <c r="F23">
+        <v>1.027036678651784</v>
+      </c>
+      <c r="G23">
+        <v>0.9784051770308507</v>
+      </c>
+      <c r="H23">
+        <v>1.027036678651784</v>
+      </c>
+      <c r="I23">
+        <v>0.9784051770308507</v>
+      </c>
+      <c r="J23">
+        <v>1.021282562589891</v>
+      </c>
+      <c r="K23">
+        <v>1.027036678651784</v>
+      </c>
+      <c r="L23">
+        <v>1.021282562589891</v>
+      </c>
+      <c r="M23">
+        <v>0.9998438698103711</v>
+      </c>
+      <c r="N23">
+        <v>0.9998438698103711</v>
+      </c>
+      <c r="O23">
+        <v>0.9950223214077222</v>
+      </c>
+      <c r="P23">
+        <v>1.008908139424175</v>
+      </c>
+      <c r="Q23">
+        <v>1.008908139424175</v>
+      </c>
+      <c r="R23">
+        <v>1.013440274231078</v>
+      </c>
+      <c r="S23">
+        <v>1.013440274231078</v>
+      </c>
+      <c r="T23">
+        <v>1.002435730674634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.02288818006891</v>
+      </c>
+      <c r="D24">
+        <v>1.216302845525289</v>
+      </c>
+      <c r="E24">
+        <v>0.4809052775899594</v>
+      </c>
+      <c r="F24">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="G24">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="H24">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="I24">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="J24">
+        <v>1.209571164467155</v>
+      </c>
+      <c r="K24">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="L24">
+        <v>1.209571164467155</v>
+      </c>
+      <c r="M24">
+        <v>0.8968543061510137</v>
+      </c>
+      <c r="N24">
+        <v>0.8968543061510137</v>
+      </c>
+      <c r="O24">
+        <v>1.003337152609106</v>
+      </c>
+      <c r="P24">
+        <v>0.7973919608630625</v>
+      </c>
+      <c r="Q24">
+        <v>0.7973919608630625</v>
+      </c>
+      <c r="R24">
+        <v>0.7476607882190869</v>
+      </c>
+      <c r="S24">
+        <v>0.7476607882190869</v>
+      </c>
+      <c r="T24">
+        <v>0.8520453642955578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8611596835495952</v>
+      </c>
+      <c r="D25">
+        <v>0.9942876679028495</v>
+      </c>
+      <c r="E25">
+        <v>1.366189381039194</v>
+      </c>
+      <c r="F25">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="G25">
+        <v>1.824828912055251</v>
+      </c>
+      <c r="H25">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="I25">
+        <v>1.824828912055251</v>
+      </c>
+      <c r="J25">
+        <v>0.6130262869623081</v>
+      </c>
+      <c r="K25">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="L25">
+        <v>0.6130262869623081</v>
+      </c>
+      <c r="M25">
+        <v>1.21892759950878</v>
+      </c>
+      <c r="N25">
+        <v>1.21892759950878</v>
+      </c>
+      <c r="O25">
+        <v>1.144047622306803</v>
+      </c>
+      <c r="P25">
+        <v>1.273500993169223</v>
+      </c>
+      <c r="Q25">
+        <v>1.273500993169223</v>
+      </c>
+      <c r="R25">
+        <v>1.300787689999444</v>
+      </c>
+      <c r="S25">
+        <v>1.300787689999444</v>
+      </c>
+      <c r="T25">
+        <v>1.173689951999884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7103990596506989</v>
+      </c>
+      <c r="D26">
+        <v>1.431283812425356</v>
+      </c>
+      <c r="E26">
+        <v>1.398478480001518</v>
+      </c>
+      <c r="F26">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="G26">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="H26">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="I26">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="J26">
+        <v>0.804701136168799</v>
+      </c>
+      <c r="K26">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="L26">
+        <v>0.804701136168799</v>
+      </c>
+      <c r="M26">
+        <v>1.770136092558038</v>
+      </c>
+      <c r="N26">
+        <v>1.770136092558038</v>
+      </c>
+      <c r="O26">
+        <v>1.65718533251381</v>
+      </c>
+      <c r="P26">
+        <v>1.378289937108601</v>
+      </c>
+      <c r="Q26">
+        <v>1.378289937108601</v>
+      </c>
+      <c r="R26">
+        <v>1.182366859383883</v>
+      </c>
+      <c r="S26">
+        <v>1.182366859383883</v>
+      </c>
+      <c r="T26">
+        <v>1.27917186056723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9490714940705147</v>
+      </c>
+      <c r="D27">
+        <v>1.24840634244747</v>
+      </c>
+      <c r="E27">
+        <v>0.4967095319502654</v>
+      </c>
+      <c r="F27">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="G27">
+        <v>0.1357185454287793</v>
+      </c>
+      <c r="H27">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="I27">
+        <v>0.1357185454287793</v>
+      </c>
+      <c r="J27">
+        <v>1.042403390647482</v>
+      </c>
+      <c r="K27">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="L27">
+        <v>1.042403390647482</v>
+      </c>
+      <c r="M27">
+        <v>0.5890609680381308</v>
+      </c>
+      <c r="N27">
+        <v>0.5890609680381308</v>
+      </c>
+      <c r="O27">
+        <v>0.8088427595079105</v>
+      </c>
+      <c r="P27">
+        <v>0.612789590954355</v>
+      </c>
+      <c r="Q27">
+        <v>0.612789590954355</v>
+      </c>
+      <c r="R27">
+        <v>0.6246539024124672</v>
+      </c>
+      <c r="S27">
+        <v>0.6246539024124672</v>
+      </c>
+      <c r="T27">
+        <v>0.7554260235552192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.060664640695199</v>
+      </c>
+      <c r="D28">
+        <v>0.8340228785013207</v>
+      </c>
+      <c r="E28">
+        <v>1.295015242197499</v>
+      </c>
+      <c r="F28">
+        <v>1.101812555258846</v>
+      </c>
+      <c r="G28">
+        <v>0.2602193436082985</v>
+      </c>
+      <c r="H28">
+        <v>1.101812555258846</v>
+      </c>
+      <c r="I28">
+        <v>0.2602193436082985</v>
+      </c>
+      <c r="J28">
+        <v>1.045718314257984</v>
+      </c>
+      <c r="K28">
+        <v>1.101812555258846</v>
+      </c>
+      <c r="L28">
+        <v>1.045718314257984</v>
+      </c>
+      <c r="M28">
+        <v>0.6529688289331413</v>
+      </c>
+      <c r="N28">
+        <v>0.6529688289331413</v>
+      </c>
+      <c r="O28">
+        <v>0.7133201787892012</v>
+      </c>
+      <c r="P28">
+        <v>0.8025834043750427</v>
+      </c>
+      <c r="Q28">
+        <v>0.8025834043750427</v>
+      </c>
+      <c r="R28">
+        <v>0.8773906920959935</v>
+      </c>
+      <c r="S28">
+        <v>0.8773906920959935</v>
+      </c>
+      <c r="T28">
+        <v>0.9329088290865243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.063242740308048</v>
+      </c>
+      <c r="D29">
+        <v>0.8539465717914458</v>
+      </c>
+      <c r="E29">
+        <v>1.221286770000021</v>
+      </c>
+      <c r="F29">
+        <v>1.040004702552399</v>
+      </c>
+      <c r="G29">
+        <v>0.4556740014503801</v>
+      </c>
+      <c r="H29">
+        <v>1.040004702552399</v>
+      </c>
+      <c r="I29">
+        <v>0.4556740014503801</v>
+      </c>
+      <c r="J29">
+        <v>1.098048424178347</v>
+      </c>
+      <c r="K29">
+        <v>1.040004702552399</v>
+      </c>
+      <c r="L29">
+        <v>1.098048424178347</v>
+      </c>
+      <c r="M29">
+        <v>0.7768612128143637</v>
+      </c>
+      <c r="N29">
+        <v>0.7768612128143637</v>
+      </c>
+      <c r="O29">
+        <v>0.8025563324733911</v>
+      </c>
+      <c r="P29">
+        <v>0.8645757093937089</v>
+      </c>
+      <c r="Q29">
+        <v>0.8645757093937089</v>
+      </c>
+      <c r="R29">
+        <v>0.9084329576833814</v>
+      </c>
+      <c r="S29">
+        <v>0.9084329576833814</v>
+      </c>
+      <c r="T29">
+        <v>0.9553672017134401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.067284766480969</v>
+      </c>
+      <c r="D30">
+        <v>0.894254771037028</v>
+      </c>
+      <c r="E30">
+        <v>1.074072374748223</v>
+      </c>
+      <c r="F30">
+        <v>0.9218442249757023</v>
+      </c>
+      <c r="G30">
+        <v>0.8458762996388284</v>
+      </c>
+      <c r="H30">
+        <v>0.9218442249757023</v>
+      </c>
+      <c r="I30">
+        <v>0.8458762996388284</v>
+      </c>
+      <c r="J30">
+        <v>1.198155102911077</v>
+      </c>
+      <c r="K30">
+        <v>0.9218442249757023</v>
+      </c>
+      <c r="L30">
+        <v>1.198155102911077</v>
+      </c>
+      <c r="M30">
+        <v>1.022015701274953</v>
+      </c>
+      <c r="N30">
+        <v>1.022015701274953</v>
+      </c>
+      <c r="O30">
+        <v>0.9794287245289778</v>
+      </c>
+      <c r="P30">
+        <v>0.9886252091752025</v>
+      </c>
+      <c r="Q30">
+        <v>0.9886252091752025</v>
+      </c>
+      <c r="R30">
+        <v>0.9719299631253274</v>
+      </c>
+      <c r="S30">
+        <v>0.9719299631253274</v>
+      </c>
+      <c r="T30">
+        <v>1.000247923298638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.088311079652047</v>
+      </c>
+      <c r="D31">
+        <v>0.892438659576803</v>
+      </c>
+      <c r="E31">
+        <v>1.058813458533614</v>
+      </c>
+      <c r="F31">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="G31">
+        <v>0.7551966887058335</v>
+      </c>
+      <c r="H31">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="I31">
+        <v>0.7551966887058335</v>
+      </c>
+      <c r="J31">
+        <v>1.304647907588511</v>
+      </c>
+      <c r="K31">
+        <v>0.835881344505162</v>
+      </c>
+      <c r="L31">
+        <v>1.304647907588511</v>
+      </c>
+      <c r="M31">
+        <v>1.029922298147172</v>
+      </c>
+      <c r="N31">
+        <v>1.029922298147172</v>
+      </c>
+      <c r="O31">
+        <v>0.9840944186237159</v>
+      </c>
+      <c r="P31">
+        <v>0.9652419802665021</v>
+      </c>
+      <c r="Q31">
+        <v>0.9652419802665023</v>
+      </c>
+      <c r="R31">
+        <v>0.9329018213261673</v>
+      </c>
+      <c r="S31">
+        <v>0.9329018213261673</v>
+      </c>
+      <c r="T31">
+        <v>0.9892148564269951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.052130832739726</v>
+      </c>
+      <c r="D32">
+        <v>0.8031264275072878</v>
+      </c>
+      <c r="E32">
+        <v>1.349693754986849</v>
+      </c>
+      <c r="F32">
+        <v>1.253268831</v>
+      </c>
+      <c r="G32">
+        <v>0.06339312314767123</v>
+      </c>
+      <c r="H32">
+        <v>1.253268831</v>
+      </c>
+      <c r="I32">
+        <v>0.06339312314767123</v>
+      </c>
+      <c r="J32">
+        <v>0.9814663257945208</v>
+      </c>
+      <c r="K32">
+        <v>1.253268831</v>
+      </c>
+      <c r="L32">
+        <v>0.9814663257945208</v>
+      </c>
+      <c r="M32">
+        <v>0.522429724471096</v>
+      </c>
+      <c r="N32">
+        <v>0.522429724471096</v>
+      </c>
+      <c r="O32">
+        <v>0.6159952921498266</v>
+      </c>
+      <c r="P32">
+        <v>0.7660427599807308</v>
+      </c>
+      <c r="Q32">
+        <v>0.7660427599807308</v>
+      </c>
+      <c r="R32">
+        <v>0.8878492777355482</v>
+      </c>
+      <c r="S32">
+        <v>0.8878492777355482</v>
+      </c>
+      <c r="T32">
+        <v>0.9171798825293426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8394994826315788</v>
+      </c>
+      <c r="D33">
+        <v>0.5502722888900528</v>
+      </c>
+      <c r="E33">
+        <v>2.895643884447369</v>
+      </c>
+      <c r="F33">
+        <v>0.8652447359789474</v>
+      </c>
+      <c r="G33">
+        <v>1.715041240706316</v>
+      </c>
+      <c r="H33">
+        <v>0.8652447359789474</v>
+      </c>
+      <c r="I33">
+        <v>1.715041240706316</v>
+      </c>
+      <c r="J33">
+        <v>1.225597825789473</v>
+      </c>
+      <c r="K33">
+        <v>0.8652447359789474</v>
+      </c>
+      <c r="L33">
+        <v>1.225597825789473</v>
+      </c>
+      <c r="M33">
+        <v>1.470319533247895</v>
+      </c>
+      <c r="N33">
+        <v>1.470319533247895</v>
+      </c>
+      <c r="O33">
+        <v>1.163637118461947</v>
+      </c>
+      <c r="P33">
+        <v>1.268627934158246</v>
+      </c>
+      <c r="Q33">
+        <v>1.268627934158246</v>
+      </c>
+      <c r="R33">
+        <v>1.167782134613421</v>
+      </c>
+      <c r="S33">
+        <v>1.167782134613421</v>
+      </c>
+      <c r="T33">
+        <v>1.348549909740623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.484208621052632</v>
+      </c>
+      <c r="D34">
+        <v>0.1117967991052631</v>
+      </c>
+      <c r="E34">
+        <v>0.3033421209894737</v>
+      </c>
+      <c r="F34">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="G34">
+        <v>0.001367293829473684</v>
+      </c>
+      <c r="H34">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="I34">
+        <v>0.001367293829473684</v>
+      </c>
+      <c r="J34">
+        <v>1.397825154157894</v>
+      </c>
+      <c r="K34">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="L34">
+        <v>1.397825154157894</v>
+      </c>
+      <c r="M34">
+        <v>0.699596223993684</v>
+      </c>
+      <c r="N34">
+        <v>0.699596223993684</v>
+      </c>
+      <c r="O34">
+        <v>0.5036630823642104</v>
+      </c>
+      <c r="P34">
+        <v>1.391070852890526</v>
+      </c>
+      <c r="Q34">
+        <v>1.391070852890526</v>
+      </c>
+      <c r="R34">
+        <v>1.736808167338947</v>
+      </c>
+      <c r="S34">
+        <v>1.736808167338947</v>
+      </c>
+      <c r="T34">
+        <v>1.012093349969824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.378968429606485</v>
+      </c>
+      <c r="D35">
+        <v>0.4921544321817394</v>
+      </c>
+      <c r="E35">
+        <v>0.9498596267555872</v>
+      </c>
+      <c r="F35">
+        <v>0.4692526067513219</v>
+      </c>
+      <c r="G35">
+        <v>0.4285181516626936</v>
+      </c>
+      <c r="H35">
+        <v>0.4692526067513219</v>
+      </c>
+      <c r="I35">
+        <v>0.4285181516626936</v>
+      </c>
+      <c r="J35">
+        <v>2.513690976457026</v>
+      </c>
+      <c r="K35">
+        <v>0.4692526067513219</v>
+      </c>
+      <c r="L35">
+        <v>2.513690976457026</v>
+      </c>
+      <c r="M35">
+        <v>1.47110456405986</v>
+      </c>
+      <c r="N35">
+        <v>1.47110456405986</v>
+      </c>
+      <c r="O35">
+        <v>1.14478785343382</v>
+      </c>
+      <c r="P35">
+        <v>1.137153911623681</v>
+      </c>
+      <c r="Q35">
+        <v>1.137153911623681</v>
+      </c>
+      <c r="R35">
+        <v>0.970178585405591</v>
+      </c>
+      <c r="S35">
+        <v>0.970178585405591</v>
+      </c>
+      <c r="T35">
+        <v>1.038740703902476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9994312680817977</v>
+      </c>
+      <c r="D36">
+        <v>0.9992492143146835</v>
+      </c>
+      <c r="E36">
+        <v>1.007206079311279</v>
+      </c>
+      <c r="F36">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="G36">
+        <v>1.000637739831506</v>
+      </c>
+      <c r="H36">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="I36">
+        <v>1.000637739831506</v>
+      </c>
+      <c r="J36">
+        <v>1.004251836029449</v>
+      </c>
+      <c r="K36">
+        <v>0.9941121656196578</v>
+      </c>
+      <c r="L36">
+        <v>1.004251836029449</v>
+      </c>
+      <c r="M36">
+        <v>1.002444787930477</v>
+      </c>
+      <c r="N36">
+        <v>1.002444787930477</v>
+      </c>
+      <c r="O36">
+        <v>1.001379596725213</v>
+      </c>
+      <c r="P36">
+        <v>0.9996672471602041</v>
+      </c>
+      <c r="Q36">
+        <v>0.9996672471602039</v>
+      </c>
+      <c r="R36">
+        <v>0.9982784767750674</v>
+      </c>
+      <c r="S36">
+        <v>0.9982784767750674</v>
+      </c>
+      <c r="T36">
+        <v>1.000814717198062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.002934481123692</v>
+      </c>
+      <c r="D37">
+        <v>1.000611794393447</v>
+      </c>
+      <c r="E37">
+        <v>0.9846286275915022</v>
+      </c>
+      <c r="F37">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="G37">
+        <v>0.9967241301729532</v>
+      </c>
+      <c r="H37">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="I37">
+        <v>0.9967241301729532</v>
+      </c>
+      <c r="J37">
+        <v>1.000132208502296</v>
+      </c>
+      <c r="K37">
+        <v>1.006824257966208</v>
+      </c>
+      <c r="L37">
+        <v>1.000132208502296</v>
+      </c>
+      <c r="M37">
+        <v>0.9984281693376246</v>
+      </c>
+      <c r="N37">
+        <v>0.9984281693376246</v>
+      </c>
+      <c r="O37">
+        <v>0.9991560443562322</v>
+      </c>
+      <c r="P37">
+        <v>1.001226865547152</v>
+      </c>
+      <c r="Q37">
+        <v>1.001226865547152</v>
+      </c>
+      <c r="R37">
+        <v>1.002626213651916</v>
+      </c>
+      <c r="S37">
+        <v>1.002626213651916</v>
+      </c>
+      <c r="T37">
+        <v>0.9986425832916831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9963994745181173</v>
+      </c>
+      <c r="D38">
+        <v>0.9904906187362382</v>
+      </c>
+      <c r="E38">
+        <v>1.033406481770172</v>
+      </c>
+      <c r="F38">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="G38">
+        <v>0.9889295972725064</v>
+      </c>
+      <c r="H38">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="I38">
+        <v>0.9889295972725064</v>
+      </c>
+      <c r="J38">
+        <v>1.006849784661923</v>
+      </c>
+      <c r="K38">
+        <v>1.001519704849466</v>
+      </c>
+      <c r="L38">
+        <v>1.006849784661923</v>
+      </c>
+      <c r="M38">
+        <v>0.9978896909672146</v>
+      </c>
+      <c r="N38">
+        <v>0.9978896909672146</v>
+      </c>
+      <c r="O38">
+        <v>0.9954233335568891</v>
+      </c>
+      <c r="P38">
+        <v>0.9990996955946319</v>
+      </c>
+      <c r="Q38">
+        <v>0.9990996955946319</v>
+      </c>
+      <c r="R38">
+        <v>0.9997046979083405</v>
+      </c>
+      <c r="S38">
+        <v>0.9997046979083405</v>
+      </c>
+      <c r="T38">
+        <v>1.002932610301404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9908887825636929</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9850854225340466</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.109032631746224</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9437301400631247</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9749107297452246</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9437301400631247</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9749107297452246</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.020304890870746</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9437301400631247</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.020304890870746</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9976078103079853</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9976078103079853</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9934336810500057</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9796485868930317</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9796485868930317</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9706689751855549</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9706689751855549</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.003992099587176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.013306312367246</v>
+      </c>
+      <c r="D40">
+        <v>0.8213378514110787</v>
+      </c>
+      <c r="E40">
+        <v>1.780907271299998</v>
+      </c>
+      <c r="F40">
+        <v>0.8975711623516931</v>
+      </c>
+      <c r="G40">
+        <v>0.8199238607959985</v>
+      </c>
+      <c r="H40">
+        <v>0.8975711623516931</v>
+      </c>
+      <c r="I40">
+        <v>0.8199238607959985</v>
+      </c>
+      <c r="J40">
+        <v>1.088540162277843</v>
+      </c>
+      <c r="K40">
+        <v>0.8975711623516931</v>
+      </c>
+      <c r="L40">
+        <v>1.088540162277843</v>
+      </c>
+      <c r="M40">
+        <v>0.9542320115369209</v>
+      </c>
+      <c r="N40">
+        <v>0.9542320115369209</v>
+      </c>
+      <c r="O40">
+        <v>0.9099339581616402</v>
+      </c>
+      <c r="P40">
+        <v>0.9353450618085116</v>
+      </c>
+      <c r="Q40">
+        <v>0.9353450618085116</v>
+      </c>
+      <c r="R40">
+        <v>0.925901586944307</v>
+      </c>
+      <c r="S40">
+        <v>0.925901586944307</v>
+      </c>
+      <c r="T40">
+        <v>1.070264436750643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.004083170000247</v>
+      </c>
+      <c r="D41">
+        <v>0.9994512288677367</v>
+      </c>
+      <c r="E41">
+        <v>0.9514823150521867</v>
+      </c>
+      <c r="F41">
+        <v>1.025570991472357</v>
+      </c>
+      <c r="G41">
+        <v>0.9664866193629842</v>
+      </c>
+      <c r="H41">
+        <v>1.025570991472357</v>
+      </c>
+      <c r="I41">
+        <v>0.9664866193629842</v>
+      </c>
+      <c r="J41">
+        <v>0.9977710751929386</v>
+      </c>
+      <c r="K41">
+        <v>1.025570991472357</v>
+      </c>
+      <c r="L41">
+        <v>0.9977710751929386</v>
+      </c>
+      <c r="M41">
+        <v>0.9821288472779615</v>
+      </c>
+      <c r="N41">
+        <v>0.9821288472779615</v>
+      </c>
+      <c r="O41">
+        <v>0.9879029744745532</v>
+      </c>
+      <c r="P41">
+        <v>0.9966095620094269</v>
+      </c>
+      <c r="Q41">
+        <v>0.9966095620094267</v>
+      </c>
+      <c r="R41">
+        <v>1.003849919375159</v>
+      </c>
+      <c r="S41">
+        <v>1.003849919375159</v>
+      </c>
+      <c r="T41">
+        <v>0.9908075666580752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.007391616297417</v>
+      </c>
+      <c r="D42">
+        <v>0.8119490692755981</v>
+      </c>
+      <c r="E42">
+        <v>1.814893925166938</v>
+      </c>
+      <c r="F42">
+        <v>0.8956621373423951</v>
+      </c>
+      <c r="G42">
+        <v>0.8636404439634077</v>
+      </c>
+      <c r="H42">
+        <v>0.8956621373423951</v>
+      </c>
+      <c r="I42">
+        <v>0.8636404439634077</v>
+      </c>
+      <c r="J42">
+        <v>1.091965709730345</v>
+      </c>
+      <c r="K42">
+        <v>0.8956621373423951</v>
+      </c>
+      <c r="L42">
+        <v>1.091965709730345</v>
+      </c>
+      <c r="M42">
+        <v>0.9778030768468762</v>
+      </c>
+      <c r="N42">
+        <v>0.9778030768468762</v>
+      </c>
+      <c r="O42">
+        <v>0.9225184076564501</v>
+      </c>
+      <c r="P42">
+        <v>0.9504227636787158</v>
+      </c>
+      <c r="Q42">
+        <v>0.9504227636787158</v>
+      </c>
+      <c r="R42">
+        <v>0.9367326070946356</v>
+      </c>
+      <c r="S42">
+        <v>0.9367326070946356</v>
+      </c>
+      <c r="T42">
+        <v>1.080917150296017</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,22 +85,28 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -76,22 +115,13 @@
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005754274522191</v>
+        <v>1.001568876799525</v>
       </c>
       <c r="D3">
-        <v>0.9589936346569252</v>
+        <v>0.9967198593193883</v>
       </c>
       <c r="E3">
-        <v>1.001763378925198</v>
+        <v>0.9995260125399144</v>
       </c>
       <c r="F3">
-        <v>1.005754274522191</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="G3">
-        <v>1.018067579234153</v>
+        <v>0.9961366019112841</v>
       </c>
       <c r="H3">
-        <v>0.9913474745797245</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="I3">
-        <v>1.002265919133797</v>
+        <v>0.9961366019112841</v>
       </c>
       <c r="J3">
-        <v>0.9589936346569252</v>
+        <v>1.005731769826528</v>
       </c>
       <c r="K3">
-        <v>1.005754274522191</v>
+        <v>1.001554652171641</v>
       </c>
       <c r="L3">
-        <v>1.001763378925198</v>
+        <v>1.005731769826528</v>
       </c>
       <c r="M3">
-        <v>0.9803785067910616</v>
+        <v>1.000934185868906</v>
       </c>
       <c r="N3">
-        <v>0.9803785067910616</v>
+        <v>1.000934185868906</v>
       </c>
       <c r="O3">
-        <v>0.9840348293872826</v>
+        <v>0.9995294103523999</v>
       </c>
       <c r="P3">
-        <v>0.9888370960347713</v>
+        <v>1.001141007969818</v>
       </c>
       <c r="Q3">
-        <v>0.9888370960347713</v>
+        <v>1.001141007969818</v>
       </c>
       <c r="R3">
-        <v>0.9930663906566262</v>
+        <v>1.001244419020273</v>
       </c>
       <c r="S3">
-        <v>0.9930663906566262</v>
+        <v>1.001244419020273</v>
       </c>
       <c r="T3">
-        <v>0.9963653768419981</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000206295428047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.015451718515925</v>
+        <v>1.013306312367246</v>
       </c>
       <c r="D4">
-        <v>0.9232685089023259</v>
+        <v>0.8213378514110787</v>
       </c>
       <c r="E4">
-        <v>1.003211672257245</v>
+        <v>1.780907271299998</v>
       </c>
       <c r="F4">
-        <v>1.015451718515925</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="G4">
-        <v>1.031756846584303</v>
+        <v>0.8199238607959985</v>
       </c>
       <c r="H4">
-        <v>0.9828310035630299</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="I4">
-        <v>1.004602478315581</v>
+        <v>0.8199238607959985</v>
       </c>
       <c r="J4">
-        <v>0.9232685089023259</v>
+        <v>1.088540162277843</v>
       </c>
       <c r="K4">
-        <v>1.015451718515925</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="L4">
-        <v>1.003211672257245</v>
+        <v>1.088540162277843</v>
       </c>
       <c r="M4">
-        <v>0.9632400905797855</v>
+        <v>0.9542320115369209</v>
       </c>
       <c r="N4">
-        <v>0.9632400905797855</v>
+        <v>0.9542320115369209</v>
       </c>
       <c r="O4">
-        <v>0.9697703949075337</v>
+        <v>0.9099339581616402</v>
       </c>
       <c r="P4">
-        <v>0.9806439665584987</v>
+        <v>0.9353450618085116</v>
       </c>
       <c r="Q4">
-        <v>0.9806439665584987</v>
+        <v>0.9353450618085116</v>
       </c>
       <c r="R4">
-        <v>0.9893459045478552</v>
+        <v>0.925901586944307</v>
       </c>
       <c r="S4">
-        <v>0.9893459045478552</v>
+        <v>0.925901586944307</v>
       </c>
       <c r="T4">
-        <v>0.9935203713564017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.070264436750643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030722648009506</v>
+        <v>1.089184066541786</v>
       </c>
       <c r="D5">
-        <v>0.8537943087520603</v>
+        <v>0.8627141658298659</v>
       </c>
       <c r="E5">
-        <v>1.002644281096307</v>
+        <v>1.06493140891026</v>
       </c>
       <c r="F5">
-        <v>1.030722648009506</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="G5">
-        <v>1.065949862727566</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="H5">
-        <v>0.965405202247157</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="I5">
-        <v>1.012468809552232</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="J5">
-        <v>0.8537943087520603</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="K5">
-        <v>1.030722648009506</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="L5">
-        <v>1.002644281096307</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="M5">
-        <v>0.9282192949241838</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="N5">
-        <v>0.9282192949241838</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="O5">
-        <v>0.9406145973651748</v>
+        <v>0.9750937890719499</v>
       </c>
       <c r="P5">
-        <v>0.9623870792859576</v>
+        <v>0.9942155872842803</v>
       </c>
       <c r="Q5">
-        <v>0.9623870792859576</v>
+        <v>0.9942155872842804</v>
       </c>
       <c r="R5">
-        <v>0.9794709714668446</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="S5">
-        <v>0.9794709714668446</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="T5">
-        <v>0.9884975187308047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999127338557922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.024111781054993</v>
+        <v>1.378968429606485</v>
       </c>
       <c r="D6">
-        <v>0.8709815620761839</v>
+        <v>0.4921544321817394</v>
       </c>
       <c r="E6">
-        <v>0.9804797774214382</v>
+        <v>0.9498596267555872</v>
       </c>
       <c r="F6">
-        <v>1.024111781054993</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="G6">
-        <v>1.207145587193502</v>
+        <v>0.4285181516626936</v>
       </c>
       <c r="H6">
-        <v>0.9196045223067114</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="I6">
-        <v>1.008803464943533</v>
+        <v>0.4285181516626936</v>
       </c>
       <c r="J6">
-        <v>0.8709815620761839</v>
+        <v>2.513690976457026</v>
       </c>
       <c r="K6">
-        <v>1.024111781054993</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="L6">
-        <v>0.9804797774214382</v>
+        <v>2.513690976457026</v>
       </c>
       <c r="M6">
-        <v>0.925730669748811</v>
+        <v>1.47110456405986</v>
       </c>
       <c r="N6">
-        <v>0.925730669748811</v>
+        <v>1.47110456405986</v>
       </c>
       <c r="O6">
-        <v>0.9236886206014444</v>
+        <v>1.14478785343382</v>
       </c>
       <c r="P6">
-        <v>0.9585243735175384</v>
+        <v>1.137153911623681</v>
       </c>
       <c r="Q6">
-        <v>0.9585243735175384</v>
+        <v>1.137153911623681</v>
       </c>
       <c r="R6">
-        <v>0.9749212254019021</v>
+        <v>0.970178585405591</v>
       </c>
       <c r="S6">
-        <v>0.9749212254019021</v>
+        <v>0.970178585405591</v>
       </c>
       <c r="T6">
-        <v>1.00185444916606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.038740703902476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998358709255134</v>
+        <v>1.004712181349749</v>
       </c>
       <c r="D7">
-        <v>0.9989591027408606</v>
+        <v>0.9875867253588344</v>
       </c>
       <c r="E7">
-        <v>1.002627714960082</v>
+        <v>1.01028089876252</v>
       </c>
       <c r="F7">
-        <v>0.9998358709255134</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="G7">
-        <v>0.9998430770736216</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="H7">
-        <v>0.9988457241124086</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="I7">
-        <v>1.000669649886545</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="J7">
-        <v>0.9989591027408606</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="K7">
-        <v>0.9998358709255134</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="L7">
-        <v>1.002627714960082</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="M7">
-        <v>1.000793408850472</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="N7">
-        <v>1.000793408850472</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="O7">
-        <v>1.00014418060445</v>
+        <v>0.9803829080657861</v>
       </c>
       <c r="P7">
-        <v>1.000474229542152</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="Q7">
-        <v>1.000474229542152</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="R7">
-        <v>1.000314639887992</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="S7">
-        <v>1.000314639887992</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="T7">
-        <v>1.000130189949838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.996011391663859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00155465217164</v>
+        <v>1.002934481123692</v>
       </c>
       <c r="D8">
-        <v>0.9961366019112848</v>
+        <v>1.000611794393447</v>
       </c>
       <c r="E8">
-        <v>1.005731769826528</v>
+        <v>0.9846286275915022</v>
       </c>
       <c r="F8">
-        <v>1.00155465217164</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="G8">
-        <v>0.9995260125399144</v>
+        <v>0.9967241301729532</v>
       </c>
       <c r="H8">
-        <v>0.9967198593193892</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="I8">
-        <v>1.001568876799526</v>
+        <v>0.9967241301729532</v>
       </c>
       <c r="J8">
-        <v>0.9961366019112848</v>
+        <v>1.000132208502296</v>
       </c>
       <c r="K8">
-        <v>1.00155465217164</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="L8">
-        <v>1.005731769826528</v>
+        <v>1.000132208502296</v>
       </c>
       <c r="M8">
-        <v>1.000934185868906</v>
+        <v>0.9984281693376246</v>
       </c>
       <c r="N8">
-        <v>1.000934185868906</v>
+        <v>0.9984281693376246</v>
       </c>
       <c r="O8">
-        <v>0.9995294103524005</v>
+        <v>0.9991560443562322</v>
       </c>
       <c r="P8">
-        <v>1.001141007969818</v>
+        <v>1.001226865547152</v>
       </c>
       <c r="Q8">
-        <v>1.001141007969818</v>
+        <v>1.001226865547152</v>
       </c>
       <c r="R8">
-        <v>1.001244419020273</v>
+        <v>1.002626213651916</v>
       </c>
       <c r="S8">
-        <v>1.001244419020273</v>
+        <v>1.002626213651916</v>
       </c>
       <c r="T8">
-        <v>1.000206295428047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9986425832916831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006047211533208</v>
+        <v>1.004602478315581</v>
       </c>
       <c r="D9">
-        <v>0.9949350304362092</v>
+        <v>0.9828310035630299</v>
       </c>
       <c r="E9">
-        <v>1.005927852146783</v>
+        <v>1.031756846584303</v>
       </c>
       <c r="F9">
-        <v>1.006047211533208</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="G9">
-        <v>0.9997785639631097</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="H9">
-        <v>0.9958840444443565</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="I9">
-        <v>1.001394450619055</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="J9">
-        <v>0.9949350304362092</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="K9">
-        <v>1.006047211533208</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="L9">
-        <v>1.005927852146783</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="M9">
-        <v>1.000431441291496</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="N9">
-        <v>1.000431441291496</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="O9">
-        <v>0.9989156423424496</v>
+        <v>0.9697703949075335</v>
       </c>
       <c r="P9">
-        <v>1.0023033647054</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="Q9">
-        <v>1.0023033647054</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="R9">
-        <v>1.003239326412352</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="S9">
-        <v>1.003239326412352</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="T9">
-        <v>1.000661192190454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9935203713564017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0084883656511</v>
+        <v>1.388258609819139</v>
       </c>
       <c r="D10">
-        <v>0.9879334974188255</v>
+        <v>0.4917642241097581</v>
       </c>
       <c r="E10">
-        <v>1.015436630427724</v>
+        <v>0.9417225355127813</v>
       </c>
       <c r="F10">
-        <v>1.0084883656511</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="G10">
-        <v>1.000096329224391</v>
+        <v>0.3799145052732203</v>
       </c>
       <c r="H10">
-        <v>0.9915249611791418</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="I10">
-        <v>1.003773518849538</v>
+        <v>0.3799145052732203</v>
       </c>
       <c r="J10">
-        <v>0.9879334974188255</v>
+        <v>2.55982666225019</v>
       </c>
       <c r="K10">
-        <v>1.0084883656511</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="L10">
-        <v>1.015436630427724</v>
+        <v>2.55982666225019</v>
       </c>
       <c r="M10">
-        <v>1.001685063923275</v>
+        <v>1.469870583761705</v>
       </c>
       <c r="N10">
-        <v>1.001685063923275</v>
+        <v>1.469870583761705</v>
       </c>
       <c r="O10">
-        <v>0.9982983630085638</v>
+        <v>1.14383513054439</v>
       </c>
       <c r="P10">
-        <v>1.003952831165883</v>
+        <v>1.124766510810691</v>
       </c>
       <c r="Q10">
-        <v>1.003952831165883</v>
+        <v>1.124766510810691</v>
       </c>
       <c r="R10">
-        <v>1.005086714787187</v>
+        <v>0.9522144743351831</v>
       </c>
       <c r="S10">
-        <v>1.005086714787187</v>
+        <v>0.9522144743351831</v>
       </c>
       <c r="T10">
-        <v>1.001208883791787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.032674150312292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.027036678651784</v>
+        <v>1.018815921924732</v>
       </c>
       <c r="D11">
-        <v>0.9784051770308507</v>
+        <v>0.8271153562540569</v>
       </c>
       <c r="E11">
-        <v>1.021282562589891</v>
+        <v>1.740781778749053</v>
       </c>
       <c r="F11">
-        <v>1.027036678651784</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="G11">
-        <v>0.9958027551889963</v>
+        <v>0.7675414924170605</v>
       </c>
       <c r="H11">
-        <v>0.9853792246024243</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="I11">
-        <v>1.006707985983857</v>
+        <v>0.7675414924170605</v>
       </c>
       <c r="J11">
-        <v>0.9784051770308507</v>
+        <v>1.083212488668863</v>
       </c>
       <c r="K11">
-        <v>1.027036678651784</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="L11">
-        <v>1.021282562589891</v>
+        <v>1.083212488668863</v>
       </c>
       <c r="M11">
-        <v>0.9998438698103711</v>
+        <v>0.9253769905429617</v>
       </c>
       <c r="N11">
-        <v>0.9998438698103711</v>
+        <v>0.9253769905429617</v>
       </c>
       <c r="O11">
-        <v>0.9950223214077222</v>
+        <v>0.89262311244666</v>
       </c>
       <c r="P11">
-        <v>1.008908139424175</v>
+        <v>0.9202664294617448</v>
       </c>
       <c r="Q11">
-        <v>1.008908139424175</v>
+        <v>0.9202664294617448</v>
       </c>
       <c r="R11">
-        <v>1.013440274231078</v>
+        <v>0.9177111489211363</v>
       </c>
       <c r="S11">
-        <v>1.013440274231078</v>
+        <v>0.9177111489211363</v>
       </c>
       <c r="T11">
-        <v>1.002435730674634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.057918724218846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5984672702871598</v>
+        <v>1.103399946157896</v>
       </c>
       <c r="D12">
-        <v>0.5841374478348731</v>
+        <v>0.8649025701905282</v>
       </c>
       <c r="E12">
-        <v>1.209571164467155</v>
+        <v>1.056608827084844</v>
       </c>
       <c r="F12">
-        <v>0.5984672702871598</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="G12">
-        <v>0.4809052775899595</v>
+        <v>0.7488297158739805</v>
       </c>
       <c r="H12">
-        <v>1.216302845525289</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="I12">
-        <v>1.02288818006891</v>
+        <v>0.7488297158739805</v>
       </c>
       <c r="J12">
-        <v>0.5841374478348731</v>
+        <v>1.377648771613681</v>
       </c>
       <c r="K12">
-        <v>0.5984672702871598</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="L12">
-        <v>1.209571164467155</v>
+        <v>1.377648771613681</v>
       </c>
       <c r="M12">
-        <v>0.8968543061510138</v>
+        <v>1.063239243743831</v>
       </c>
       <c r="N12">
-        <v>0.8968543061510138</v>
+        <v>1.063239243743831</v>
       </c>
       <c r="O12">
-        <v>1.003337152609106</v>
+        <v>0.9971270192260633</v>
       </c>
       <c r="P12">
-        <v>0.7973919608630625</v>
+        <v>0.9852461729990454</v>
       </c>
       <c r="Q12">
-        <v>0.7973919608630625</v>
+        <v>0.9852461729990454</v>
       </c>
       <c r="R12">
-        <v>0.7476607882190869</v>
+        <v>0.9462496376266527</v>
       </c>
       <c r="S12">
-        <v>0.7476607882190869</v>
+        <v>0.9462496376266527</v>
       </c>
       <c r="T12">
-        <v>0.8520453642955578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9967749770717341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.382647780490109</v>
+        <v>0.9648477737129968</v>
       </c>
       <c r="D13">
-        <v>1.824828912055251</v>
+        <v>1.098448641913349</v>
       </c>
       <c r="E13">
-        <v>0.6130262869623081</v>
+        <v>0.915832917631164</v>
       </c>
       <c r="F13">
-        <v>1.382647780490109</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="G13">
-        <v>1.366189381039194</v>
+        <v>0.994888128178861</v>
       </c>
       <c r="H13">
-        <v>0.9942876679028499</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="I13">
-        <v>0.861159683549595</v>
+        <v>0.994888128178861</v>
       </c>
       <c r="J13">
-        <v>1.824828912055251</v>
+        <v>0.9860742642575701</v>
       </c>
       <c r="K13">
-        <v>1.382647780490109</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="L13">
-        <v>0.6130262869623081</v>
+        <v>0.9860742642575701</v>
       </c>
       <c r="M13">
-        <v>1.21892759950878</v>
+        <v>0.9904811962182155</v>
       </c>
       <c r="N13">
-        <v>1.21892759950878</v>
+        <v>0.9904811962182155</v>
       </c>
       <c r="O13">
-        <v>1.144047622306803</v>
+        <v>1.02647034478326</v>
       </c>
       <c r="P13">
-        <v>1.273500993169222</v>
+        <v>0.9755655512934368</v>
       </c>
       <c r="Q13">
-        <v>1.273500993169222</v>
+        <v>0.9755655512934368</v>
       </c>
       <c r="R13">
-        <v>1.300787689999444</v>
+        <v>0.9681077288310475</v>
       </c>
       <c r="S13">
-        <v>1.300787689999444</v>
+        <v>0.9681077288310475</v>
       </c>
       <c r="T13">
-        <v>1.173689951999884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9843043311896368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5945976262097269</v>
+        <v>1.690892899999998</v>
       </c>
       <c r="D14">
-        <v>2.735571048947276</v>
+        <v>0.08708571299999984</v>
       </c>
       <c r="E14">
-        <v>0.804701136168799</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="F14">
-        <v>0.5945976262097269</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="G14">
-        <v>1.398478480001518</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="H14">
-        <v>1.431283812425356</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="I14">
-        <v>0.7103990596506989</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="J14">
-        <v>2.735571048947276</v>
+        <v>3.830413899999998</v>
       </c>
       <c r="K14">
-        <v>0.5945976262097269</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="L14">
-        <v>0.804701136168799</v>
+        <v>3.830413899999998</v>
       </c>
       <c r="M14">
-        <v>1.770136092558038</v>
+        <v>1.917208535299999</v>
       </c>
       <c r="N14">
-        <v>1.770136092558038</v>
+        <v>1.917208535299999</v>
       </c>
       <c r="O14">
-        <v>1.65718533251381</v>
+        <v>1.307167594533333</v>
       </c>
       <c r="P14">
-        <v>1.378289937108601</v>
+        <v>1.287092517199999</v>
       </c>
       <c r="Q14">
-        <v>1.378289937108601</v>
+        <v>1.287092517199999</v>
       </c>
       <c r="R14">
-        <v>1.182366859383882</v>
+        <v>0.9720345081499994</v>
       </c>
       <c r="S14">
-        <v>1.182366859383882</v>
+        <v>0.9720345081499994</v>
       </c>
       <c r="T14">
-        <v>1.279171860567229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.077424644099999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6602468367868036</v>
+        <v>0.60377661</v>
       </c>
       <c r="D15">
-        <v>0.1357185454287793</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E15">
-        <v>1.042403390647482</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F15">
-        <v>0.6602468367868036</v>
+        <v>7.6546011</v>
       </c>
       <c r="G15">
-        <v>0.4967095319502656</v>
+        <v>0.00064866866</v>
       </c>
       <c r="H15">
-        <v>1.24840634244747</v>
+        <v>7.6546011</v>
       </c>
       <c r="I15">
-        <v>0.9490714940705146</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J15">
-        <v>0.1357185454287793</v>
+        <v>0.026860481</v>
       </c>
       <c r="K15">
-        <v>0.6602468367868036</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.042403390647482</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.5890609680381308</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N15">
-        <v>0.5890609680381308</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O15">
-        <v>0.8088427595079105</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P15">
-        <v>0.612789590954355</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q15">
-        <v>0.612789590954355</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R15">
-        <v>0.6246539024124672</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S15">
-        <v>0.6246539024124672</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T15">
-        <v>0.7554260235552192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.39175324751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9941121656196574</v>
+        <v>0.37216738</v>
       </c>
       <c r="D16">
-        <v>1.000637739831507</v>
+        <v>-0.003116856999999999</v>
       </c>
       <c r="E16">
-        <v>1.004251836029449</v>
+        <v>11.477873</v>
       </c>
       <c r="F16">
-        <v>0.9941121656196574</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G16">
-        <v>1.007206079311279</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H16">
-        <v>0.9992492143146827</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I16">
-        <v>0.9994312680817971</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J16">
-        <v>1.000637739831507</v>
+        <v>0.8252917</v>
       </c>
       <c r="K16">
-        <v>0.9941121656196574</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="L16">
-        <v>1.004251836029449</v>
+        <v>0.8252917</v>
       </c>
       <c r="M16">
-        <v>1.002444787930478</v>
+        <v>0.4110180101</v>
       </c>
       <c r="N16">
-        <v>1.002444787930478</v>
+        <v>0.4110180101</v>
       </c>
       <c r="O16">
-        <v>1.001379596725213</v>
+        <v>0.2729730544</v>
       </c>
       <c r="P16">
-        <v>0.9996672471602043</v>
+        <v>0.2765057585666666</v>
       </c>
       <c r="Q16">
-        <v>0.9996672471602043</v>
+        <v>0.2765057585666666</v>
       </c>
       <c r="R16">
-        <v>0.9982784767750675</v>
+        <v>0.2092496328</v>
       </c>
       <c r="S16">
-        <v>0.9982784767750675</v>
+        <v>0.2092496328</v>
       </c>
       <c r="T16">
-        <v>1.000814717198062</v>
+        <v>2.112740133116667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006824257966208</v>
+        <v>0.82561464</v>
       </c>
       <c r="D17">
-        <v>0.9967241301729542</v>
+        <v>0.51062885</v>
       </c>
       <c r="E17">
-        <v>1.000132208502295</v>
+        <v>0.019588475</v>
       </c>
       <c r="F17">
-        <v>1.006824257966208</v>
+        <v>3.1681935</v>
       </c>
       <c r="G17">
-        <v>0.9846286275915016</v>
+        <v>0.10700535</v>
       </c>
       <c r="H17">
-        <v>1.000611794393447</v>
+        <v>3.1681935</v>
       </c>
       <c r="I17">
-        <v>1.002934481123691</v>
+        <v>0.10700535</v>
       </c>
       <c r="J17">
-        <v>0.9967241301729542</v>
+        <v>0.92526086</v>
       </c>
       <c r="K17">
-        <v>1.006824257966208</v>
+        <v>3.1681935</v>
       </c>
       <c r="L17">
-        <v>1.000132208502295</v>
+        <v>0.92526086</v>
       </c>
       <c r="M17">
-        <v>0.9984281693376249</v>
+        <v>0.516133105</v>
       </c>
       <c r="N17">
-        <v>0.9984281693376249</v>
+        <v>0.516133105</v>
       </c>
       <c r="O17">
-        <v>0.9991560443562323</v>
+        <v>0.5142983533333333</v>
       </c>
       <c r="P17">
-        <v>1.001226865547152</v>
+        <v>1.400153236666666</v>
       </c>
       <c r="Q17">
-        <v>1.001226865547152</v>
+        <v>1.400153236666666</v>
       </c>
       <c r="R17">
-        <v>1.002626213651916</v>
+        <v>1.8421633025</v>
       </c>
       <c r="S17">
-        <v>1.002626213651916</v>
+        <v>1.8421633025</v>
       </c>
       <c r="T17">
-        <v>0.9986425832916828</v>
+        <v>0.9260486124999998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001519704849466</v>
+        <v>1.052130832739726</v>
       </c>
       <c r="D18">
-        <v>0.9889295972725066</v>
+        <v>0.8031264275072878</v>
       </c>
       <c r="E18">
-        <v>1.006849784661922</v>
+        <v>1.349693754986849</v>
       </c>
       <c r="F18">
-        <v>1.001519704849466</v>
+        <v>1.253268831</v>
       </c>
       <c r="G18">
-        <v>1.033406481770172</v>
+        <v>0.06339312314767123</v>
       </c>
       <c r="H18">
-        <v>0.9904906187362382</v>
+        <v>1.253268831</v>
       </c>
       <c r="I18">
-        <v>0.9963994745181176</v>
+        <v>0.06339312314767123</v>
       </c>
       <c r="J18">
-        <v>0.9889295972725066</v>
+        <v>0.9814663257945208</v>
       </c>
       <c r="K18">
-        <v>1.001519704849466</v>
+        <v>1.253268831</v>
       </c>
       <c r="L18">
-        <v>1.006849784661922</v>
+        <v>0.9814663257945208</v>
       </c>
       <c r="M18">
-        <v>0.9978896909672146</v>
+        <v>0.522429724471096</v>
       </c>
       <c r="N18">
-        <v>0.9978896909672146</v>
+        <v>0.522429724471096</v>
       </c>
       <c r="O18">
-        <v>0.9954233335568891</v>
+        <v>0.6159952921498266</v>
       </c>
       <c r="P18">
-        <v>0.9990996955946319</v>
+        <v>0.7660427599807308</v>
       </c>
       <c r="Q18">
-        <v>0.9990996955946319</v>
+        <v>0.7660427599807308</v>
       </c>
       <c r="R18">
-        <v>0.9997046979083405</v>
+        <v>0.8878492777355482</v>
       </c>
       <c r="S18">
-        <v>0.9997046979083405</v>
+        <v>0.8878492777355482</v>
       </c>
       <c r="T18">
-        <v>1.002932610301404</v>
+        <v>0.9171798825293426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9437301400631247</v>
+        <v>0.8394994826315788</v>
       </c>
       <c r="D19">
-        <v>0.9749107297452246</v>
+        <v>0.5502722888900528</v>
       </c>
       <c r="E19">
-        <v>1.020304890870746</v>
+        <v>2.895643884447369</v>
       </c>
       <c r="F19">
-        <v>0.9437301400631247</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="G19">
-        <v>1.109032631746224</v>
+        <v>1.715041240706316</v>
       </c>
       <c r="H19">
-        <v>0.9850854225340466</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="I19">
-        <v>0.9908887825636929</v>
+        <v>1.715041240706316</v>
       </c>
       <c r="J19">
-        <v>0.9749107297452246</v>
+        <v>1.225597825789473</v>
       </c>
       <c r="K19">
-        <v>0.9437301400631247</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="L19">
-        <v>1.020304890870746</v>
+        <v>1.225597825789473</v>
       </c>
       <c r="M19">
-        <v>0.9976078103079853</v>
+        <v>1.470319533247895</v>
       </c>
       <c r="N19">
-        <v>0.9976078103079853</v>
+        <v>1.470319533247895</v>
       </c>
       <c r="O19">
-        <v>0.9934336810500057</v>
+        <v>1.163637118461947</v>
       </c>
       <c r="P19">
-        <v>0.9796485868930317</v>
+        <v>1.268627934158246</v>
       </c>
       <c r="Q19">
-        <v>0.9796485868930317</v>
+        <v>1.268627934158246</v>
       </c>
       <c r="R19">
-        <v>0.9706689751855549</v>
+        <v>1.167782134613421</v>
       </c>
       <c r="S19">
-        <v>0.9706689751855549</v>
+        <v>1.167782134613421</v>
       </c>
       <c r="T19">
-        <v>1.003992099587176</v>
+        <v>1.348549909740623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.484208621052632</v>
+      </c>
+      <c r="D20">
+        <v>0.1117967991052631</v>
+      </c>
+      <c r="E20">
+        <v>0.3033421209894737</v>
+      </c>
+      <c r="F20">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="G20">
+        <v>0.001367293829473684</v>
+      </c>
+      <c r="H20">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="I20">
+        <v>0.001367293829473684</v>
+      </c>
+      <c r="J20">
+        <v>1.397825154157894</v>
+      </c>
+      <c r="K20">
+        <v>2.774020110684211</v>
+      </c>
+      <c r="L20">
+        <v>1.397825154157894</v>
+      </c>
+      <c r="M20">
+        <v>0.699596223993684</v>
+      </c>
+      <c r="N20">
+        <v>0.699596223993684</v>
+      </c>
+      <c r="O20">
+        <v>0.5036630823642104</v>
+      </c>
+      <c r="P20">
+        <v>1.391070852890526</v>
+      </c>
+      <c r="Q20">
+        <v>1.391070852890526</v>
+      </c>
+      <c r="R20">
+        <v>1.736808167338947</v>
+      </c>
+      <c r="S20">
+        <v>1.736808167338947</v>
+      </c>
+      <c r="T20">
+        <v>1.012093349969824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7103990596506989</v>
+      </c>
+      <c r="D21">
+        <v>1.431283812425356</v>
+      </c>
+      <c r="E21">
+        <v>1.398478480001518</v>
+      </c>
+      <c r="F21">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="G21">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="H21">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="I21">
+        <v>2.735571048947277</v>
+      </c>
+      <c r="J21">
+        <v>0.804701136168799</v>
+      </c>
+      <c r="K21">
+        <v>0.5945976262097267</v>
+      </c>
+      <c r="L21">
+        <v>0.804701136168799</v>
+      </c>
+      <c r="M21">
+        <v>1.770136092558038</v>
+      </c>
+      <c r="N21">
+        <v>1.770136092558038</v>
+      </c>
+      <c r="O21">
+        <v>1.65718533251381</v>
+      </c>
+      <c r="P21">
+        <v>1.378289937108601</v>
+      </c>
+      <c r="Q21">
+        <v>1.378289937108601</v>
+      </c>
+      <c r="R21">
+        <v>1.182366859383883</v>
+      </c>
+      <c r="S21">
+        <v>1.182366859383883</v>
+      </c>
+      <c r="T21">
+        <v>1.27917186056723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9490714940705147</v>
+      </c>
+      <c r="D22">
+        <v>1.24840634244747</v>
+      </c>
+      <c r="E22">
+        <v>0.4967095319502654</v>
+      </c>
+      <c r="F22">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="G22">
+        <v>0.1357185454287793</v>
+      </c>
+      <c r="H22">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="I22">
+        <v>0.1357185454287793</v>
+      </c>
+      <c r="J22">
+        <v>1.042403390647482</v>
+      </c>
+      <c r="K22">
+        <v>0.6602468367868036</v>
+      </c>
+      <c r="L22">
+        <v>1.042403390647482</v>
+      </c>
+      <c r="M22">
+        <v>0.5890609680381308</v>
+      </c>
+      <c r="N22">
+        <v>0.5890609680381308</v>
+      </c>
+      <c r="O22">
+        <v>0.8088427595079105</v>
+      </c>
+      <c r="P22">
+        <v>0.612789590954355</v>
+      </c>
+      <c r="Q22">
+        <v>0.612789590954355</v>
+      </c>
+      <c r="R22">
+        <v>0.6246539024124672</v>
+      </c>
+      <c r="S22">
+        <v>0.6246539024124672</v>
+      </c>
+      <c r="T22">
+        <v>0.7554260235552192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.02288818006891</v>
+      </c>
+      <c r="D23">
+        <v>1.216302845525289</v>
+      </c>
+      <c r="E23">
+        <v>0.4809052775899594</v>
+      </c>
+      <c r="F23">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="G23">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="H23">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="I23">
+        <v>0.584137447834873</v>
+      </c>
+      <c r="J23">
+        <v>1.209571164467155</v>
+      </c>
+      <c r="K23">
+        <v>0.59846727028716</v>
+      </c>
+      <c r="L23">
+        <v>1.209571164467155</v>
+      </c>
+      <c r="M23">
+        <v>0.8968543061510137</v>
+      </c>
+      <c r="N23">
+        <v>0.8968543061510137</v>
+      </c>
+      <c r="O23">
+        <v>1.003337152609106</v>
+      </c>
+      <c r="P23">
+        <v>0.7973919608630625</v>
+      </c>
+      <c r="Q23">
+        <v>0.7973919608630625</v>
+      </c>
+      <c r="R23">
+        <v>0.7476607882190869</v>
+      </c>
+      <c r="S23">
+        <v>0.7476607882190869</v>
+      </c>
+      <c r="T23">
+        <v>0.8520453642955578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8611596835495952</v>
+      </c>
+      <c r="D24">
+        <v>0.9942876679028495</v>
+      </c>
+      <c r="E24">
+        <v>1.366189381039194</v>
+      </c>
+      <c r="F24">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="G24">
+        <v>1.824828912055251</v>
+      </c>
+      <c r="H24">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="I24">
+        <v>1.824828912055251</v>
+      </c>
+      <c r="J24">
+        <v>0.6130262869623081</v>
+      </c>
+      <c r="K24">
+        <v>1.382647780490109</v>
+      </c>
+      <c r="L24">
+        <v>0.6130262869623081</v>
+      </c>
+      <c r="M24">
+        <v>1.21892759950878</v>
+      </c>
+      <c r="N24">
+        <v>1.21892759950878</v>
+      </c>
+      <c r="O24">
+        <v>1.144047622306803</v>
+      </c>
+      <c r="P24">
+        <v>1.273500993169223</v>
+      </c>
+      <c r="Q24">
+        <v>1.273500993169223</v>
+      </c>
+      <c r="R24">
+        <v>1.300787689999444</v>
+      </c>
+      <c r="S24">
+        <v>1.300787689999444</v>
+      </c>
+      <c r="T24">
+        <v>1.173689951999884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.275169372389725</v>
+      </c>
+      <c r="D25">
+        <v>0.3955061199700422</v>
+      </c>
+      <c r="E25">
+        <v>0.1929985237779277</v>
+      </c>
+      <c r="F25">
+        <v>2.722406016609467</v>
+      </c>
+      <c r="G25">
+        <v>0.005598573199597822</v>
+      </c>
+      <c r="H25">
+        <v>2.722406016609467</v>
+      </c>
+      <c r="I25">
+        <v>0.005598573199597822</v>
+      </c>
+      <c r="J25">
+        <v>0.44107016616261</v>
+      </c>
+      <c r="K25">
+        <v>2.722406016609467</v>
+      </c>
+      <c r="L25">
+        <v>0.44107016616261</v>
+      </c>
+      <c r="M25">
+        <v>0.2233343696811039</v>
+      </c>
+      <c r="N25">
+        <v>0.2233343696811039</v>
+      </c>
+      <c r="O25">
+        <v>0.28072495311075</v>
+      </c>
+      <c r="P25">
+        <v>1.056358251990558</v>
+      </c>
+      <c r="Q25">
+        <v>1.056358251990559</v>
+      </c>
+      <c r="R25">
+        <v>1.472870193145286</v>
+      </c>
+      <c r="S25">
+        <v>1.472870193145286</v>
+      </c>
+      <c r="T25">
+        <v>0.8387914620182285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.080990674500061</v>
+      </c>
+      <c r="D26">
+        <v>1.039704153124347</v>
+      </c>
+      <c r="E26">
+        <v>1.505690530365147</v>
+      </c>
+      <c r="F26">
+        <v>0.1345123402776549</v>
+      </c>
+      <c r="G26">
+        <v>0.3228266566364928</v>
+      </c>
+      <c r="H26">
+        <v>0.1345123402776549</v>
+      </c>
+      <c r="I26">
+        <v>0.3228266566364928</v>
+      </c>
+      <c r="J26">
+        <v>1.617978823072952</v>
+      </c>
+      <c r="K26">
+        <v>0.1345123402776549</v>
+      </c>
+      <c r="L26">
+        <v>1.617978823072952</v>
+      </c>
+      <c r="M26">
+        <v>0.9704027398547223</v>
+      </c>
+      <c r="N26">
+        <v>0.9704027398547223</v>
+      </c>
+      <c r="O26">
+        <v>0.993503210944597</v>
+      </c>
+      <c r="P26">
+        <v>0.6917726066623665</v>
+      </c>
+      <c r="Q26">
+        <v>0.6917726066623665</v>
+      </c>
+      <c r="R26">
+        <v>0.5524575400661886</v>
+      </c>
+      <c r="S26">
+        <v>0.5524575400661886</v>
+      </c>
+      <c r="T26">
+        <v>0.950283862996109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.171670708735053</v>
+      </c>
+      <c r="D27">
+        <v>0.6829619762315124</v>
+      </c>
+      <c r="E27">
+        <v>0.5823031783411339</v>
+      </c>
+      <c r="F27">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="G27">
+        <v>2.095498719596397</v>
+      </c>
+      <c r="H27">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="I27">
+        <v>2.095498719596397</v>
+      </c>
+      <c r="J27">
+        <v>1.168234183026325</v>
+      </c>
+      <c r="K27">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="L27">
+        <v>1.168234183026325</v>
+      </c>
+      <c r="M27">
+        <v>1.631866451311361</v>
+      </c>
+      <c r="N27">
+        <v>1.631866451311361</v>
+      </c>
+      <c r="O27">
+        <v>1.315564959618078</v>
+      </c>
+      <c r="P27">
+        <v>1.544200560276294</v>
+      </c>
+      <c r="Q27">
+        <v>1.544200560276294</v>
+      </c>
+      <c r="R27">
+        <v>1.50036761475876</v>
+      </c>
+      <c r="S27">
+        <v>1.50036761475876</v>
+      </c>
+      <c r="T27">
+        <v>1.178256257356096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9032067946946786</v>
+      </c>
+      <c r="D28">
+        <v>1.045478939267442</v>
+      </c>
+      <c r="E28">
+        <v>1.03108186087466</v>
+      </c>
+      <c r="F28">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="G28">
+        <v>0.5302533347288919</v>
+      </c>
+      <c r="H28">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="I28">
+        <v>0.5302533347288919</v>
+      </c>
+      <c r="J28">
+        <v>1.169476500989954</v>
+      </c>
+      <c r="K28">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="L28">
+        <v>1.169476500989954</v>
+      </c>
+      <c r="M28">
+        <v>0.8498649178594231</v>
+      </c>
+      <c r="N28">
+        <v>0.8498649178594231</v>
+      </c>
+      <c r="O28">
+        <v>0.9150695916620961</v>
+      </c>
+      <c r="P28">
+        <v>1.093154828926289</v>
+      </c>
+      <c r="Q28">
+        <v>1.093154828926289</v>
+      </c>
+      <c r="R28">
+        <v>1.214799784459721</v>
+      </c>
+      <c r="S28">
+        <v>1.214799784459721</v>
+      </c>
+      <c r="T28">
+        <v>1.043205346935941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.6217198804703993</v>
+      </c>
+      <c r="D29">
+        <v>1.128052335791717</v>
+      </c>
+      <c r="E29">
+        <v>0.9168461871772715</v>
+      </c>
+      <c r="F29">
+        <v>2.830823979593102</v>
+      </c>
+      <c r="G29">
+        <v>0.9260630537791296</v>
+      </c>
+      <c r="H29">
+        <v>2.830823979593102</v>
+      </c>
+      <c r="I29">
+        <v>0.9260630537791296</v>
+      </c>
+      <c r="J29">
+        <v>0.8232795871173796</v>
+      </c>
+      <c r="K29">
+        <v>2.830823979593102</v>
+      </c>
+      <c r="L29">
+        <v>0.8232795871173796</v>
+      </c>
+      <c r="M29">
+        <v>0.8746713204482546</v>
+      </c>
+      <c r="N29">
+        <v>0.8746713204482546</v>
+      </c>
+      <c r="O29">
+        <v>0.9591316588960753</v>
+      </c>
+      <c r="P29">
+        <v>1.526722206829871</v>
+      </c>
+      <c r="Q29">
+        <v>1.526722206829871</v>
+      </c>
+      <c r="R29">
+        <v>1.852747650020679</v>
+      </c>
+      <c r="S29">
+        <v>1.852747650020679</v>
+      </c>
+      <c r="T29">
+        <v>1.207797503988167</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.013306312367246</v>
+        <v>1.06872396808027</v>
       </c>
       <c r="D4">
-        <v>0.8213378514110787</v>
+        <v>0.8982211373575921</v>
       </c>
       <c r="E4">
-        <v>1.780907271299998</v>
+        <v>1.081249038698065</v>
       </c>
       <c r="F4">
-        <v>0.8975711623516931</v>
+        <v>0.8914659372229451</v>
       </c>
       <c r="G4">
-        <v>0.8199238607959985</v>
+        <v>0.8511064110289974</v>
       </c>
       <c r="H4">
-        <v>0.8975711623516931</v>
+        <v>0.8914659372229451</v>
       </c>
       <c r="I4">
-        <v>0.8199238607959985</v>
+        <v>0.8511064110289974</v>
       </c>
       <c r="J4">
-        <v>1.088540162277843</v>
+        <v>1.207171387104472</v>
       </c>
       <c r="K4">
-        <v>0.8975711623516931</v>
+        <v>0.8914659372229451</v>
       </c>
       <c r="L4">
-        <v>1.088540162277843</v>
+        <v>1.207171387104472</v>
       </c>
       <c r="M4">
-        <v>0.9542320115369209</v>
+        <v>1.029138899066735</v>
       </c>
       <c r="N4">
-        <v>0.9542320115369209</v>
+        <v>1.029138899066735</v>
       </c>
       <c r="O4">
-        <v>0.9099339581616402</v>
+        <v>0.9854996451636874</v>
       </c>
       <c r="P4">
-        <v>0.9353450618085116</v>
+        <v>0.9832479117854717</v>
       </c>
       <c r="Q4">
-        <v>0.9353450618085116</v>
+        <v>0.9832479117854716</v>
       </c>
       <c r="R4">
-        <v>0.925901586944307</v>
+        <v>0.96030241814484</v>
       </c>
       <c r="S4">
-        <v>0.925901586944307</v>
+        <v>0.96030241814484</v>
       </c>
       <c r="T4">
-        <v>1.070264436750643</v>
+        <v>0.9996563132487237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.089184066541786</v>
+        <v>1.485133695755427</v>
       </c>
       <c r="D5">
-        <v>0.8627141658298659</v>
+        <v>0.1145913781313107</v>
       </c>
       <c r="E5">
-        <v>1.06493140891026</v>
+        <v>0.2725048918582184</v>
       </c>
       <c r="F5">
-        <v>0.9200795604668568</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="G5">
-        <v>0.7979410057901699</v>
+        <v>0.001181544848868478</v>
       </c>
       <c r="H5">
-        <v>0.9200795604668568</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="I5">
-        <v>0.7979410057901699</v>
+        <v>0.001181544848868478</v>
       </c>
       <c r="J5">
-        <v>1.264626195595814</v>
+        <v>1.254026928356074</v>
       </c>
       <c r="K5">
-        <v>0.9200795604668568</v>
+        <v>2.870329214851996</v>
       </c>
       <c r="L5">
-        <v>1.264626195595814</v>
+        <v>1.254026928356074</v>
       </c>
       <c r="M5">
-        <v>1.031283600692992</v>
+        <v>0.6276042366024712</v>
       </c>
       <c r="N5">
-        <v>1.031283600692992</v>
+        <v>0.6276042366024712</v>
       </c>
       <c r="O5">
-        <v>0.9750937890719499</v>
+        <v>0.4565999504454177</v>
       </c>
       <c r="P5">
-        <v>0.9942155872842803</v>
+        <v>1.375179229352313</v>
       </c>
       <c r="Q5">
-        <v>0.9942155872842804</v>
+        <v>1.375179229352313</v>
       </c>
       <c r="R5">
-        <v>0.9756815805799245</v>
+        <v>1.748966725727234</v>
       </c>
       <c r="S5">
-        <v>0.9756815805799245</v>
+        <v>1.748966725727234</v>
       </c>
       <c r="T5">
-        <v>0.9999127338557922</v>
+        <v>0.9996279423003158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.378968429606485</v>
+        <v>1.013306312367246</v>
       </c>
       <c r="D6">
-        <v>0.4921544321817394</v>
+        <v>0.8213378514110787</v>
       </c>
       <c r="E6">
-        <v>0.9498596267555872</v>
+        <v>1.780907271299998</v>
       </c>
       <c r="F6">
-        <v>0.4692526067513219</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="G6">
-        <v>0.4285181516626936</v>
+        <v>0.8199238607959985</v>
       </c>
       <c r="H6">
-        <v>0.4692526067513219</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="I6">
-        <v>0.4285181516626936</v>
+        <v>0.8199238607959985</v>
       </c>
       <c r="J6">
-        <v>2.513690976457026</v>
+        <v>1.088540162277843</v>
       </c>
       <c r="K6">
-        <v>0.4692526067513219</v>
+        <v>0.8975711623516931</v>
       </c>
       <c r="L6">
-        <v>2.513690976457026</v>
+        <v>1.088540162277843</v>
       </c>
       <c r="M6">
-        <v>1.47110456405986</v>
+        <v>0.9542320115369209</v>
       </c>
       <c r="N6">
-        <v>1.47110456405986</v>
+        <v>0.9542320115369209</v>
       </c>
       <c r="O6">
-        <v>1.14478785343382</v>
+        <v>0.9099339581616402</v>
       </c>
       <c r="P6">
-        <v>1.137153911623681</v>
+        <v>0.9353450618085116</v>
       </c>
       <c r="Q6">
-        <v>1.137153911623681</v>
+        <v>0.9353450618085116</v>
       </c>
       <c r="R6">
-        <v>0.970178585405591</v>
+        <v>0.925901586944307</v>
       </c>
       <c r="S6">
-        <v>0.970178585405591</v>
+        <v>0.925901586944307</v>
       </c>
       <c r="T6">
-        <v>1.038740703902476</v>
+        <v>1.070264436750643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.004712181349749</v>
+        <v>1.089184066541786</v>
       </c>
       <c r="D7">
-        <v>0.9875867253588344</v>
+        <v>0.8627141658298659</v>
       </c>
       <c r="E7">
-        <v>1.01028089876252</v>
+        <v>1.06493140891026</v>
       </c>
       <c r="F7">
-        <v>1.019926545673526</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="G7">
-        <v>0.9556191291004755</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="H7">
-        <v>1.019926545673526</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="I7">
-        <v>0.9556191291004755</v>
+        <v>0.7979410057901699</v>
       </c>
       <c r="J7">
-        <v>0.9979428697380485</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="K7">
-        <v>1.019926545673526</v>
+        <v>0.9200795604668568</v>
       </c>
       <c r="L7">
-        <v>0.9979428697380485</v>
+        <v>1.264626195595814</v>
       </c>
       <c r="M7">
-        <v>0.976780999419262</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="N7">
-        <v>0.976780999419262</v>
+        <v>1.031283600692992</v>
       </c>
       <c r="O7">
-        <v>0.9803829080657861</v>
+        <v>0.9750937890719499</v>
       </c>
       <c r="P7">
-        <v>0.9911628481706835</v>
+        <v>0.9942155872842803</v>
       </c>
       <c r="Q7">
-        <v>0.9911628481706835</v>
+        <v>0.9942155872842804</v>
       </c>
       <c r="R7">
-        <v>0.9983537725463942</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="S7">
-        <v>0.9983537725463942</v>
+        <v>0.9756815805799245</v>
       </c>
       <c r="T7">
-        <v>0.996011391663859</v>
+        <v>0.9999127338557922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002934481123692</v>
+        <v>1.378968429606485</v>
       </c>
       <c r="D8">
-        <v>1.000611794393447</v>
+        <v>0.4921544321817394</v>
       </c>
       <c r="E8">
-        <v>0.9846286275915022</v>
+        <v>0.9498596267555872</v>
       </c>
       <c r="F8">
-        <v>1.006824257966208</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="G8">
-        <v>0.9967241301729532</v>
+        <v>0.4285181516626936</v>
       </c>
       <c r="H8">
-        <v>1.006824257966208</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="I8">
-        <v>0.9967241301729532</v>
+        <v>0.4285181516626936</v>
       </c>
       <c r="J8">
-        <v>1.000132208502296</v>
+        <v>2.513690976457026</v>
       </c>
       <c r="K8">
-        <v>1.006824257966208</v>
+        <v>0.4692526067513219</v>
       </c>
       <c r="L8">
-        <v>1.000132208502296</v>
+        <v>2.513690976457026</v>
       </c>
       <c r="M8">
-        <v>0.9984281693376246</v>
+        <v>1.47110456405986</v>
       </c>
       <c r="N8">
-        <v>0.9984281693376246</v>
+        <v>1.47110456405986</v>
       </c>
       <c r="O8">
-        <v>0.9991560443562322</v>
+        <v>1.14478785343382</v>
       </c>
       <c r="P8">
-        <v>1.001226865547152</v>
+        <v>1.137153911623681</v>
       </c>
       <c r="Q8">
-        <v>1.001226865547152</v>
+        <v>1.137153911623681</v>
       </c>
       <c r="R8">
-        <v>1.002626213651916</v>
+        <v>0.970178585405591</v>
       </c>
       <c r="S8">
-        <v>1.002626213651916</v>
+        <v>0.970178585405591</v>
       </c>
       <c r="T8">
-        <v>0.9986425832916831</v>
+        <v>1.038740703902476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004602478315581</v>
+        <v>1.004712181349749</v>
       </c>
       <c r="D9">
-        <v>0.9828310035630299</v>
+        <v>0.9875867253588344</v>
       </c>
       <c r="E9">
-        <v>1.031756846584303</v>
+        <v>1.01028089876252</v>
       </c>
       <c r="F9">
-        <v>1.015451718515925</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="G9">
-        <v>0.9232685089023258</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="H9">
-        <v>1.015451718515925</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="I9">
-        <v>0.9232685089023258</v>
+        <v>0.9556191291004755</v>
       </c>
       <c r="J9">
-        <v>1.003211672257245</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="K9">
-        <v>1.015451718515925</v>
+        <v>1.019926545673526</v>
       </c>
       <c r="L9">
-        <v>1.003211672257245</v>
+        <v>0.9979428697380485</v>
       </c>
       <c r="M9">
-        <v>0.9632400905797854</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="N9">
-        <v>0.9632400905797854</v>
+        <v>0.976780999419262</v>
       </c>
       <c r="O9">
-        <v>0.9697703949075335</v>
+        <v>0.9803829080657861</v>
       </c>
       <c r="P9">
-        <v>0.9806439665584986</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="Q9">
-        <v>0.9806439665584986</v>
+        <v>0.9911628481706835</v>
       </c>
       <c r="R9">
-        <v>0.9893459045478552</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="S9">
-        <v>0.9893459045478552</v>
+        <v>0.9983537725463942</v>
       </c>
       <c r="T9">
-        <v>0.9935203713564017</v>
+        <v>0.996011391663859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.388258609819139</v>
+        <v>1.002934481123692</v>
       </c>
       <c r="D10">
-        <v>0.4917642241097581</v>
+        <v>1.000611794393447</v>
       </c>
       <c r="E10">
-        <v>0.9417225355127813</v>
+        <v>0.9846286275915022</v>
       </c>
       <c r="F10">
-        <v>0.434558364908661</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="G10">
-        <v>0.3799145052732203</v>
+        <v>0.9967241301729532</v>
       </c>
       <c r="H10">
-        <v>0.434558364908661</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="I10">
-        <v>0.3799145052732203</v>
+        <v>0.9967241301729532</v>
       </c>
       <c r="J10">
-        <v>2.55982666225019</v>
+        <v>1.000132208502296</v>
       </c>
       <c r="K10">
-        <v>0.434558364908661</v>
+        <v>1.006824257966208</v>
       </c>
       <c r="L10">
-        <v>2.55982666225019</v>
+        <v>1.000132208502296</v>
       </c>
       <c r="M10">
-        <v>1.469870583761705</v>
+        <v>0.9984281693376246</v>
       </c>
       <c r="N10">
-        <v>1.469870583761705</v>
+        <v>0.9984281693376246</v>
       </c>
       <c r="O10">
-        <v>1.14383513054439</v>
+        <v>0.9991560443562322</v>
       </c>
       <c r="P10">
-        <v>1.124766510810691</v>
+        <v>1.001226865547152</v>
       </c>
       <c r="Q10">
-        <v>1.124766510810691</v>
+        <v>1.001226865547152</v>
       </c>
       <c r="R10">
-        <v>0.9522144743351831</v>
+        <v>1.002626213651916</v>
       </c>
       <c r="S10">
-        <v>0.9522144743351831</v>
+        <v>1.002626213651916</v>
       </c>
       <c r="T10">
-        <v>1.032674150312292</v>
+        <v>0.9986425832916831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.018815921924732</v>
+        <v>1.004602478315581</v>
       </c>
       <c r="D11">
-        <v>0.8271153562540569</v>
+        <v>0.9828310035630299</v>
       </c>
       <c r="E11">
-        <v>1.740781778749053</v>
+        <v>1.031756846584303</v>
       </c>
       <c r="F11">
-        <v>0.9100453072993108</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="G11">
-        <v>0.7675414924170605</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="H11">
-        <v>0.9100453072993108</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="I11">
-        <v>0.7675414924170605</v>
+        <v>0.9232685089023258</v>
       </c>
       <c r="J11">
-        <v>1.083212488668863</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="K11">
-        <v>0.9100453072993108</v>
+        <v>1.015451718515925</v>
       </c>
       <c r="L11">
-        <v>1.083212488668863</v>
+        <v>1.003211672257245</v>
       </c>
       <c r="M11">
-        <v>0.9253769905429617</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="N11">
-        <v>0.9253769905429617</v>
+        <v>0.9632400905797854</v>
       </c>
       <c r="O11">
-        <v>0.89262311244666</v>
+        <v>0.9697703949075335</v>
       </c>
       <c r="P11">
-        <v>0.9202664294617448</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="Q11">
-        <v>0.9202664294617448</v>
+        <v>0.9806439665584986</v>
       </c>
       <c r="R11">
-        <v>0.9177111489211363</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="S11">
-        <v>0.9177111489211363</v>
+        <v>0.9893459045478552</v>
       </c>
       <c r="T11">
-        <v>1.057918724218846</v>
+        <v>0.9935203713564017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.103399946157896</v>
+        <v>1.388258609819139</v>
       </c>
       <c r="D12">
-        <v>0.8649025701905282</v>
+        <v>0.4917642241097581</v>
       </c>
       <c r="E12">
-        <v>1.056608827084844</v>
+        <v>0.9417225355127813</v>
       </c>
       <c r="F12">
-        <v>0.8292600315094745</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="G12">
-        <v>0.7488297158739805</v>
+        <v>0.3799145052732203</v>
       </c>
       <c r="H12">
-        <v>0.8292600315094745</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="I12">
-        <v>0.7488297158739805</v>
+        <v>0.3799145052732203</v>
       </c>
       <c r="J12">
-        <v>1.377648771613681</v>
+        <v>2.55982666225019</v>
       </c>
       <c r="K12">
-        <v>0.8292600315094745</v>
+        <v>0.434558364908661</v>
       </c>
       <c r="L12">
-        <v>1.377648771613681</v>
+        <v>2.55982666225019</v>
       </c>
       <c r="M12">
-        <v>1.063239243743831</v>
+        <v>1.469870583761705</v>
       </c>
       <c r="N12">
-        <v>1.063239243743831</v>
+        <v>1.469870583761705</v>
       </c>
       <c r="O12">
-        <v>0.9971270192260633</v>
+        <v>1.14383513054439</v>
       </c>
       <c r="P12">
-        <v>0.9852461729990454</v>
+        <v>1.124766510810691</v>
       </c>
       <c r="Q12">
-        <v>0.9852461729990454</v>
+        <v>1.124766510810691</v>
       </c>
       <c r="R12">
-        <v>0.9462496376266527</v>
+        <v>0.9522144743351831</v>
       </c>
       <c r="S12">
-        <v>0.9462496376266527</v>
+        <v>0.9522144743351831</v>
       </c>
       <c r="T12">
-        <v>0.9967749770717341</v>
+        <v>1.032674150312292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9648477737129968</v>
+        <v>1.018815921924732</v>
       </c>
       <c r="D13">
-        <v>1.098448641913349</v>
+        <v>0.8271153562540569</v>
       </c>
       <c r="E13">
-        <v>0.915832917631164</v>
+        <v>1.740781778749053</v>
       </c>
       <c r="F13">
-        <v>0.9457342614438794</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="G13">
-        <v>0.994888128178861</v>
+        <v>0.7675414924170605</v>
       </c>
       <c r="H13">
-        <v>0.9457342614438794</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="I13">
-        <v>0.994888128178861</v>
+        <v>0.7675414924170605</v>
       </c>
       <c r="J13">
-        <v>0.9860742642575701</v>
+        <v>1.083212488668863</v>
       </c>
       <c r="K13">
-        <v>0.9457342614438794</v>
+        <v>0.9100453072993108</v>
       </c>
       <c r="L13">
-        <v>0.9860742642575701</v>
+        <v>1.083212488668863</v>
       </c>
       <c r="M13">
-        <v>0.9904811962182155</v>
+        <v>0.9253769905429617</v>
       </c>
       <c r="N13">
-        <v>0.9904811962182155</v>
+        <v>0.9253769905429617</v>
       </c>
       <c r="O13">
-        <v>1.02647034478326</v>
+        <v>0.89262311244666</v>
       </c>
       <c r="P13">
-        <v>0.9755655512934368</v>
+        <v>0.9202664294617448</v>
       </c>
       <c r="Q13">
-        <v>0.9755655512934368</v>
+        <v>0.9202664294617448</v>
       </c>
       <c r="R13">
-        <v>0.9681077288310475</v>
+        <v>0.9177111489211363</v>
       </c>
       <c r="S13">
-        <v>0.9681077288310475</v>
+        <v>0.9177111489211363</v>
       </c>
       <c r="T13">
-        <v>0.9843043311896368</v>
+        <v>1.057918724218846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.690892899999998</v>
+        <v>1.103399946157896</v>
       </c>
       <c r="D14">
-        <v>0.08708571299999984</v>
+        <v>0.8649025701905282</v>
       </c>
       <c r="E14">
-        <v>0.8252917000000006</v>
+        <v>1.056608827084844</v>
       </c>
       <c r="F14">
-        <v>0.02686048099999998</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="G14">
-        <v>0.004003170599999996</v>
+        <v>0.7488297158739805</v>
       </c>
       <c r="H14">
-        <v>0.02686048099999998</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="I14">
-        <v>0.004003170599999996</v>
+        <v>0.7488297158739805</v>
       </c>
       <c r="J14">
-        <v>3.830413899999998</v>
+        <v>1.377648771613681</v>
       </c>
       <c r="K14">
-        <v>0.02686048099999998</v>
+        <v>0.8292600315094745</v>
       </c>
       <c r="L14">
-        <v>3.830413899999998</v>
+        <v>1.377648771613681</v>
       </c>
       <c r="M14">
-        <v>1.917208535299999</v>
+        <v>1.063239243743831</v>
       </c>
       <c r="N14">
-        <v>1.917208535299999</v>
+        <v>1.063239243743831</v>
       </c>
       <c r="O14">
-        <v>1.307167594533333</v>
+        <v>0.9971270192260633</v>
       </c>
       <c r="P14">
-        <v>1.287092517199999</v>
+        <v>0.9852461729990454</v>
       </c>
       <c r="Q14">
-        <v>1.287092517199999</v>
+        <v>0.9852461729990454</v>
       </c>
       <c r="R14">
-        <v>0.9720345081499994</v>
+        <v>0.9462496376266527</v>
       </c>
       <c r="S14">
-        <v>0.9720345081499994</v>
+        <v>0.9462496376266527</v>
       </c>
       <c r="T14">
-        <v>1.077424644099999</v>
+        <v>0.9967749770717341</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.60377661</v>
+        <v>0.9648477737129968</v>
       </c>
       <c r="D15">
-        <v>0.05715137000000001</v>
+        <v>1.098448641913349</v>
       </c>
       <c r="E15">
-        <v>0.0074812554</v>
+        <v>0.915832917631164</v>
       </c>
       <c r="F15">
-        <v>7.6546011</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="G15">
-        <v>0.00064866866</v>
+        <v>0.994888128178861</v>
       </c>
       <c r="H15">
-        <v>7.6546011</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="I15">
-        <v>0.00064866866</v>
+        <v>0.994888128178861</v>
       </c>
       <c r="J15">
-        <v>0.026860481</v>
+        <v>0.9860742642575701</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>0.9457342614438794</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.9860742642575701</v>
       </c>
       <c r="M15">
-        <v>0.01375457483</v>
+        <v>0.9904811962182155</v>
       </c>
       <c r="N15">
-        <v>0.01375457483</v>
+        <v>0.9904811962182155</v>
       </c>
       <c r="O15">
-        <v>0.02822017322</v>
+        <v>1.02647034478326</v>
       </c>
       <c r="P15">
-        <v>2.560703416553333</v>
+        <v>0.9755655512934368</v>
       </c>
       <c r="Q15">
-        <v>2.560703416553333</v>
+        <v>0.9755655512934368</v>
       </c>
       <c r="R15">
-        <v>3.834177837415</v>
+        <v>0.9681077288310475</v>
       </c>
       <c r="S15">
-        <v>3.834177837415</v>
+        <v>0.9681077288310475</v>
       </c>
       <c r="T15">
-        <v>1.39175324751</v>
+        <v>0.9843043311896368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.37216738</v>
+        <v>1.690892899999998</v>
       </c>
       <c r="D16">
-        <v>-0.003116856999999999</v>
+        <v>0.08708571299999984</v>
       </c>
       <c r="E16">
-        <v>11.477873</v>
+        <v>0.8252917000000006</v>
       </c>
       <c r="F16">
-        <v>0.007481255500000001</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="G16">
-        <v>-0.0032556798</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="H16">
-        <v>0.007481255500000001</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="I16">
-        <v>-0.0032556798</v>
+        <v>0.004003170599999996</v>
       </c>
       <c r="J16">
-        <v>0.8252917</v>
+        <v>3.830413899999998</v>
       </c>
       <c r="K16">
-        <v>0.007481255500000001</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="L16">
-        <v>0.8252917</v>
+        <v>3.830413899999998</v>
       </c>
       <c r="M16">
-        <v>0.4110180101</v>
+        <v>1.917208535299999</v>
       </c>
       <c r="N16">
-        <v>0.4110180101</v>
+        <v>1.917208535299999</v>
       </c>
       <c r="O16">
-        <v>0.2729730544</v>
+        <v>1.307167594533333</v>
       </c>
       <c r="P16">
-        <v>0.2765057585666666</v>
+        <v>1.287092517199999</v>
       </c>
       <c r="Q16">
-        <v>0.2765057585666666</v>
+        <v>1.287092517199999</v>
       </c>
       <c r="R16">
-        <v>0.2092496328</v>
+        <v>0.9720345081499994</v>
       </c>
       <c r="S16">
-        <v>0.2092496328</v>
+        <v>0.9720345081499994</v>
       </c>
       <c r="T16">
-        <v>2.112740133116667</v>
+        <v>1.077424644099999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.82561464</v>
+        <v>0.60377661</v>
       </c>
       <c r="D17">
-        <v>0.51062885</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="E17">
-        <v>0.019588475</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F17">
-        <v>3.1681935</v>
+        <v>7.6546011</v>
       </c>
       <c r="G17">
-        <v>0.10700535</v>
+        <v>0.00064866866</v>
       </c>
       <c r="H17">
-        <v>3.1681935</v>
+        <v>7.6546011</v>
       </c>
       <c r="I17">
-        <v>0.10700535</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J17">
-        <v>0.92526086</v>
+        <v>0.026860481</v>
       </c>
       <c r="K17">
-        <v>3.1681935</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>0.92526086</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>0.516133105</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N17">
-        <v>0.516133105</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O17">
-        <v>0.5142983533333333</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P17">
-        <v>1.400153236666666</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q17">
-        <v>1.400153236666666</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R17">
-        <v>1.8421633025</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S17">
-        <v>1.8421633025</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T17">
-        <v>0.9260486124999998</v>
+        <v>1.39175324751</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.052130832739726</v>
+        <v>0.37216738</v>
       </c>
       <c r="D18">
-        <v>0.8031264275072878</v>
+        <v>-0.003116856999999999</v>
       </c>
       <c r="E18">
-        <v>1.349693754986849</v>
+        <v>11.477873</v>
       </c>
       <c r="F18">
-        <v>1.253268831</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G18">
-        <v>0.06339312314767123</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="H18">
-        <v>1.253268831</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I18">
-        <v>0.06339312314767123</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="J18">
-        <v>0.9814663257945208</v>
+        <v>0.8252917</v>
       </c>
       <c r="K18">
-        <v>1.253268831</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="L18">
-        <v>0.9814663257945208</v>
+        <v>0.8252917</v>
       </c>
       <c r="M18">
-        <v>0.522429724471096</v>
+        <v>0.4110180101</v>
       </c>
       <c r="N18">
-        <v>0.522429724471096</v>
+        <v>0.4110180101</v>
       </c>
       <c r="O18">
-        <v>0.6159952921498266</v>
+        <v>0.2729730544</v>
       </c>
       <c r="P18">
-        <v>0.7660427599807308</v>
+        <v>0.2765057585666666</v>
       </c>
       <c r="Q18">
-        <v>0.7660427599807308</v>
+        <v>0.2765057585666666</v>
       </c>
       <c r="R18">
-        <v>0.8878492777355482</v>
+        <v>0.2092496328</v>
       </c>
       <c r="S18">
-        <v>0.8878492777355482</v>
+        <v>0.2092496328</v>
       </c>
       <c r="T18">
-        <v>0.9171798825293426</v>
+        <v>2.112740133116667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8394994826315788</v>
+        <v>0.82561464</v>
       </c>
       <c r="D19">
-        <v>0.5502722888900528</v>
+        <v>0.51062885</v>
       </c>
       <c r="E19">
-        <v>2.895643884447369</v>
+        <v>0.019588475</v>
       </c>
       <c r="F19">
-        <v>0.8652447359789474</v>
+        <v>3.1681935</v>
       </c>
       <c r="G19">
-        <v>1.715041240706316</v>
+        <v>0.10700535</v>
       </c>
       <c r="H19">
-        <v>0.8652447359789474</v>
+        <v>3.1681935</v>
       </c>
       <c r="I19">
-        <v>1.715041240706316</v>
+        <v>0.10700535</v>
       </c>
       <c r="J19">
-        <v>1.225597825789473</v>
+        <v>0.92526086</v>
       </c>
       <c r="K19">
-        <v>0.8652447359789474</v>
+        <v>3.1681935</v>
       </c>
       <c r="L19">
-        <v>1.225597825789473</v>
+        <v>0.92526086</v>
       </c>
       <c r="M19">
-        <v>1.470319533247895</v>
+        <v>0.516133105</v>
       </c>
       <c r="N19">
-        <v>1.470319533247895</v>
+        <v>0.516133105</v>
       </c>
       <c r="O19">
-        <v>1.163637118461947</v>
+        <v>0.5142983533333333</v>
       </c>
       <c r="P19">
-        <v>1.268627934158246</v>
+        <v>1.400153236666666</v>
       </c>
       <c r="Q19">
-        <v>1.268627934158246</v>
+        <v>1.400153236666666</v>
       </c>
       <c r="R19">
-        <v>1.167782134613421</v>
+        <v>1.8421633025</v>
       </c>
       <c r="S19">
-        <v>1.167782134613421</v>
+        <v>1.8421633025</v>
       </c>
       <c r="T19">
-        <v>1.348549909740623</v>
+        <v>0.9260486124999998</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.484208621052632</v>
+        <v>1.052130832739726</v>
       </c>
       <c r="D20">
-        <v>0.1117967991052631</v>
+        <v>0.8031264275072878</v>
       </c>
       <c r="E20">
-        <v>0.3033421209894737</v>
+        <v>1.349693754986849</v>
       </c>
       <c r="F20">
-        <v>2.774020110684211</v>
+        <v>1.253268831</v>
       </c>
       <c r="G20">
-        <v>0.001367293829473684</v>
+        <v>0.06339312314767123</v>
       </c>
       <c r="H20">
-        <v>2.774020110684211</v>
+        <v>1.253268831</v>
       </c>
       <c r="I20">
-        <v>0.001367293829473684</v>
+        <v>0.06339312314767123</v>
       </c>
       <c r="J20">
-        <v>1.397825154157894</v>
+        <v>0.9814663257945208</v>
       </c>
       <c r="K20">
-        <v>2.774020110684211</v>
+        <v>1.253268831</v>
       </c>
       <c r="L20">
-        <v>1.397825154157894</v>
+        <v>0.9814663257945208</v>
       </c>
       <c r="M20">
-        <v>0.699596223993684</v>
+        <v>0.522429724471096</v>
       </c>
       <c r="N20">
-        <v>0.699596223993684</v>
+        <v>0.522429724471096</v>
       </c>
       <c r="O20">
-        <v>0.5036630823642104</v>
+        <v>0.6159952921498266</v>
       </c>
       <c r="P20">
-        <v>1.391070852890526</v>
+        <v>0.7660427599807308</v>
       </c>
       <c r="Q20">
-        <v>1.391070852890526</v>
+        <v>0.7660427599807308</v>
       </c>
       <c r="R20">
-        <v>1.736808167338947</v>
+        <v>0.8878492777355482</v>
       </c>
       <c r="S20">
-        <v>1.736808167338947</v>
+        <v>0.8878492777355482</v>
       </c>
       <c r="T20">
-        <v>1.012093349969824</v>
+        <v>0.9171798825293426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7103990596506989</v>
+        <v>0.8394994826315788</v>
       </c>
       <c r="D21">
-        <v>1.431283812425356</v>
+        <v>0.5502722888900528</v>
       </c>
       <c r="E21">
-        <v>1.398478480001518</v>
+        <v>2.895643884447369</v>
       </c>
       <c r="F21">
-        <v>0.5945976262097267</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="G21">
-        <v>2.735571048947277</v>
+        <v>1.715041240706316</v>
       </c>
       <c r="H21">
-        <v>0.5945976262097267</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="I21">
-        <v>2.735571048947277</v>
+        <v>1.715041240706316</v>
       </c>
       <c r="J21">
-        <v>0.804701136168799</v>
+        <v>1.225597825789473</v>
       </c>
       <c r="K21">
-        <v>0.5945976262097267</v>
+        <v>0.8652447359789474</v>
       </c>
       <c r="L21">
-        <v>0.804701136168799</v>
+        <v>1.225597825789473</v>
       </c>
       <c r="M21">
-        <v>1.770136092558038</v>
+        <v>1.470319533247895</v>
       </c>
       <c r="N21">
-        <v>1.770136092558038</v>
+        <v>1.470319533247895</v>
       </c>
       <c r="O21">
-        <v>1.65718533251381</v>
+        <v>1.163637118461947</v>
       </c>
       <c r="P21">
-        <v>1.378289937108601</v>
+        <v>1.268627934158246</v>
       </c>
       <c r="Q21">
-        <v>1.378289937108601</v>
+        <v>1.268627934158246</v>
       </c>
       <c r="R21">
-        <v>1.182366859383883</v>
+        <v>1.167782134613421</v>
       </c>
       <c r="S21">
-        <v>1.182366859383883</v>
+        <v>1.167782134613421</v>
       </c>
       <c r="T21">
-        <v>1.27917186056723</v>
+        <v>1.348549909740623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9490714940705147</v>
+        <v>1.484208621052632</v>
       </c>
       <c r="D22">
-        <v>1.24840634244747</v>
+        <v>0.1117967991052631</v>
       </c>
       <c r="E22">
-        <v>0.4967095319502654</v>
+        <v>0.3033421209894737</v>
       </c>
       <c r="F22">
-        <v>0.6602468367868036</v>
+        <v>2.774020110684211</v>
       </c>
       <c r="G22">
-        <v>0.1357185454287793</v>
+        <v>0.001367293829473684</v>
       </c>
       <c r="H22">
-        <v>0.6602468367868036</v>
+        <v>2.774020110684211</v>
       </c>
       <c r="I22">
-        <v>0.1357185454287793</v>
+        <v>0.001367293829473684</v>
       </c>
       <c r="J22">
-        <v>1.042403390647482</v>
+        <v>1.397825154157894</v>
       </c>
       <c r="K22">
-        <v>0.6602468367868036</v>
+        <v>2.774020110684211</v>
       </c>
       <c r="L22">
-        <v>1.042403390647482</v>
+        <v>1.397825154157894</v>
       </c>
       <c r="M22">
-        <v>0.5890609680381308</v>
+        <v>0.699596223993684</v>
       </c>
       <c r="N22">
-        <v>0.5890609680381308</v>
+        <v>0.699596223993684</v>
       </c>
       <c r="O22">
-        <v>0.8088427595079105</v>
+        <v>0.5036630823642104</v>
       </c>
       <c r="P22">
-        <v>0.612789590954355</v>
+        <v>1.391070852890526</v>
       </c>
       <c r="Q22">
-        <v>0.612789590954355</v>
+        <v>1.391070852890526</v>
       </c>
       <c r="R22">
-        <v>0.6246539024124672</v>
+        <v>1.736808167338947</v>
       </c>
       <c r="S22">
-        <v>0.6246539024124672</v>
+        <v>1.736808167338947</v>
       </c>
       <c r="T22">
-        <v>0.7554260235552192</v>
+        <v>1.012093349969824</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.02288818006891</v>
+        <v>0.7103990596506989</v>
       </c>
       <c r="D23">
-        <v>1.216302845525289</v>
+        <v>1.431283812425356</v>
       </c>
       <c r="E23">
-        <v>0.4809052775899594</v>
+        <v>1.398478480001518</v>
       </c>
       <c r="F23">
-        <v>0.59846727028716</v>
+        <v>0.5945976262097267</v>
       </c>
       <c r="G23">
-        <v>0.584137447834873</v>
+        <v>2.735571048947277</v>
       </c>
       <c r="H23">
-        <v>0.59846727028716</v>
+        <v>0.5945976262097267</v>
       </c>
       <c r="I23">
-        <v>0.584137447834873</v>
+        <v>2.735571048947277</v>
       </c>
       <c r="J23">
-        <v>1.209571164467155</v>
+        <v>0.804701136168799</v>
       </c>
       <c r="K23">
-        <v>0.59846727028716</v>
+        <v>0.5945976262097267</v>
       </c>
       <c r="L23">
-        <v>1.209571164467155</v>
+        <v>0.804701136168799</v>
       </c>
       <c r="M23">
-        <v>0.8968543061510137</v>
+        <v>1.770136092558038</v>
       </c>
       <c r="N23">
-        <v>0.8968543061510137</v>
+        <v>1.770136092558038</v>
       </c>
       <c r="O23">
-        <v>1.003337152609106</v>
+        <v>1.65718533251381</v>
       </c>
       <c r="P23">
-        <v>0.7973919608630625</v>
+        <v>1.378289937108601</v>
       </c>
       <c r="Q23">
-        <v>0.7973919608630625</v>
+        <v>1.378289937108601</v>
       </c>
       <c r="R23">
-        <v>0.7476607882190869</v>
+        <v>1.182366859383883</v>
       </c>
       <c r="S23">
-        <v>0.7476607882190869</v>
+        <v>1.182366859383883</v>
       </c>
       <c r="T23">
-        <v>0.8520453642955578</v>
+        <v>1.27917186056723</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8611596835495952</v>
+        <v>0.9490714940705147</v>
       </c>
       <c r="D24">
-        <v>0.9942876679028495</v>
+        <v>1.24840634244747</v>
       </c>
       <c r="E24">
-        <v>1.366189381039194</v>
+        <v>0.4967095319502654</v>
       </c>
       <c r="F24">
-        <v>1.382647780490109</v>
+        <v>0.6602468367868036</v>
       </c>
       <c r="G24">
-        <v>1.824828912055251</v>
+        <v>0.1357185454287793</v>
       </c>
       <c r="H24">
-        <v>1.382647780490109</v>
+        <v>0.6602468367868036</v>
       </c>
       <c r="I24">
-        <v>1.824828912055251</v>
+        <v>0.1357185454287793</v>
       </c>
       <c r="J24">
-        <v>0.6130262869623081</v>
+        <v>1.042403390647482</v>
       </c>
       <c r="K24">
-        <v>1.382647780490109</v>
+        <v>0.6602468367868036</v>
       </c>
       <c r="L24">
-        <v>0.6130262869623081</v>
+        <v>1.042403390647482</v>
       </c>
       <c r="M24">
-        <v>1.21892759950878</v>
+        <v>0.5890609680381308</v>
       </c>
       <c r="N24">
-        <v>1.21892759950878</v>
+        <v>0.5890609680381308</v>
       </c>
       <c r="O24">
-        <v>1.144047622306803</v>
+        <v>0.8088427595079105</v>
       </c>
       <c r="P24">
-        <v>1.273500993169223</v>
+        <v>0.612789590954355</v>
       </c>
       <c r="Q24">
-        <v>1.273500993169223</v>
+        <v>0.612789590954355</v>
       </c>
       <c r="R24">
-        <v>1.300787689999444</v>
+        <v>0.6246539024124672</v>
       </c>
       <c r="S24">
-        <v>1.300787689999444</v>
+        <v>0.6246539024124672</v>
       </c>
       <c r="T24">
-        <v>1.173689951999884</v>
+        <v>0.7554260235552192</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.275169372389725</v>
+        <v>1.02288818006891</v>
       </c>
       <c r="D25">
-        <v>0.3955061199700422</v>
+        <v>1.216302845525289</v>
       </c>
       <c r="E25">
-        <v>0.1929985237779277</v>
+        <v>0.4809052775899594</v>
       </c>
       <c r="F25">
-        <v>2.722406016609467</v>
+        <v>0.59846727028716</v>
       </c>
       <c r="G25">
-        <v>0.005598573199597822</v>
+        <v>0.584137447834873</v>
       </c>
       <c r="H25">
-        <v>2.722406016609467</v>
+        <v>0.59846727028716</v>
       </c>
       <c r="I25">
-        <v>0.005598573199597822</v>
+        <v>0.584137447834873</v>
       </c>
       <c r="J25">
-        <v>0.44107016616261</v>
+        <v>1.209571164467155</v>
       </c>
       <c r="K25">
-        <v>2.722406016609467</v>
+        <v>0.59846727028716</v>
       </c>
       <c r="L25">
-        <v>0.44107016616261</v>
+        <v>1.209571164467155</v>
       </c>
       <c r="M25">
-        <v>0.2233343696811039</v>
+        <v>0.8968543061510137</v>
       </c>
       <c r="N25">
-        <v>0.2233343696811039</v>
+        <v>0.8968543061510137</v>
       </c>
       <c r="O25">
-        <v>0.28072495311075</v>
+        <v>1.003337152609106</v>
       </c>
       <c r="P25">
-        <v>1.056358251990558</v>
+        <v>0.7973919608630625</v>
       </c>
       <c r="Q25">
-        <v>1.056358251990559</v>
+        <v>0.7973919608630625</v>
       </c>
       <c r="R25">
-        <v>1.472870193145286</v>
+        <v>0.7476607882190869</v>
       </c>
       <c r="S25">
-        <v>1.472870193145286</v>
+        <v>0.7476607882190869</v>
       </c>
       <c r="T25">
-        <v>0.8387914620182285</v>
+        <v>0.8520453642955578</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.080990674500061</v>
+        <v>0.8611596835495952</v>
       </c>
       <c r="D26">
-        <v>1.039704153124347</v>
+        <v>0.9942876679028495</v>
       </c>
       <c r="E26">
-        <v>1.505690530365147</v>
+        <v>1.366189381039194</v>
       </c>
       <c r="F26">
-        <v>0.1345123402776549</v>
+        <v>1.382647780490109</v>
       </c>
       <c r="G26">
-        <v>0.3228266566364928</v>
+        <v>1.824828912055251</v>
       </c>
       <c r="H26">
-        <v>0.1345123402776549</v>
+        <v>1.382647780490109</v>
       </c>
       <c r="I26">
-        <v>0.3228266566364928</v>
+        <v>1.824828912055251</v>
       </c>
       <c r="J26">
-        <v>1.617978823072952</v>
+        <v>0.6130262869623081</v>
       </c>
       <c r="K26">
-        <v>0.1345123402776549</v>
+        <v>1.382647780490109</v>
       </c>
       <c r="L26">
-        <v>1.617978823072952</v>
+        <v>0.6130262869623081</v>
       </c>
       <c r="M26">
-        <v>0.9704027398547223</v>
+        <v>1.21892759950878</v>
       </c>
       <c r="N26">
-        <v>0.9704027398547223</v>
+        <v>1.21892759950878</v>
       </c>
       <c r="O26">
-        <v>0.993503210944597</v>
+        <v>1.144047622306803</v>
       </c>
       <c r="P26">
-        <v>0.6917726066623665</v>
+        <v>1.273500993169223</v>
       </c>
       <c r="Q26">
-        <v>0.6917726066623665</v>
+        <v>1.273500993169223</v>
       </c>
       <c r="R26">
-        <v>0.5524575400661886</v>
+        <v>1.300787689999444</v>
       </c>
       <c r="S26">
-        <v>0.5524575400661886</v>
+        <v>1.300787689999444</v>
       </c>
       <c r="T26">
-        <v>0.950283862996109</v>
+        <v>1.173689951999884</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.171670708735053</v>
+        <v>1.275169372389725</v>
       </c>
       <c r="D27">
-        <v>0.6829619762315124</v>
+        <v>0.3955061199700422</v>
       </c>
       <c r="E27">
-        <v>0.5823031783411339</v>
+        <v>0.1929985237779277</v>
       </c>
       <c r="F27">
-        <v>1.368868778206159</v>
+        <v>2.722406016609467</v>
       </c>
       <c r="G27">
-        <v>2.095498719596397</v>
+        <v>0.005598573199597822</v>
       </c>
       <c r="H27">
-        <v>1.368868778206159</v>
+        <v>2.722406016609467</v>
       </c>
       <c r="I27">
-        <v>2.095498719596397</v>
+        <v>0.005598573199597822</v>
       </c>
       <c r="J27">
-        <v>1.168234183026325</v>
+        <v>0.44107016616261</v>
       </c>
       <c r="K27">
-        <v>1.368868778206159</v>
+        <v>2.722406016609467</v>
       </c>
       <c r="L27">
-        <v>1.168234183026325</v>
+        <v>0.44107016616261</v>
       </c>
       <c r="M27">
-        <v>1.631866451311361</v>
+        <v>0.2233343696811039</v>
       </c>
       <c r="N27">
-        <v>1.631866451311361</v>
+        <v>0.2233343696811039</v>
       </c>
       <c r="O27">
-        <v>1.315564959618078</v>
+        <v>0.28072495311075</v>
       </c>
       <c r="P27">
-        <v>1.544200560276294</v>
+        <v>1.056358251990558</v>
       </c>
       <c r="Q27">
-        <v>1.544200560276294</v>
+        <v>1.056358251990559</v>
       </c>
       <c r="R27">
-        <v>1.50036761475876</v>
+        <v>1.472870193145286</v>
       </c>
       <c r="S27">
-        <v>1.50036761475876</v>
+        <v>1.472870193145286</v>
       </c>
       <c r="T27">
-        <v>1.178256257356096</v>
+        <v>0.8387914620182285</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9032067946946786</v>
+        <v>1.080990674500061</v>
       </c>
       <c r="D28">
-        <v>1.045478939267442</v>
+        <v>1.039704153124347</v>
       </c>
       <c r="E28">
-        <v>1.03108186087466</v>
+        <v>1.505690530365147</v>
       </c>
       <c r="F28">
-        <v>1.57973465106002</v>
+        <v>0.1345123402776549</v>
       </c>
       <c r="G28">
-        <v>0.5302533347288919</v>
+        <v>0.3228266566364928</v>
       </c>
       <c r="H28">
-        <v>1.57973465106002</v>
+        <v>0.1345123402776549</v>
       </c>
       <c r="I28">
-        <v>0.5302533347288919</v>
+        <v>0.3228266566364928</v>
       </c>
       <c r="J28">
-        <v>1.169476500989954</v>
+        <v>1.617978823072952</v>
       </c>
       <c r="K28">
-        <v>1.57973465106002</v>
+        <v>0.1345123402776549</v>
       </c>
       <c r="L28">
-        <v>1.169476500989954</v>
+        <v>1.617978823072952</v>
       </c>
       <c r="M28">
-        <v>0.8498649178594231</v>
+        <v>0.9704027398547223</v>
       </c>
       <c r="N28">
-        <v>0.8498649178594231</v>
+        <v>0.9704027398547223</v>
       </c>
       <c r="O28">
-        <v>0.9150695916620961</v>
+        <v>0.993503210944597</v>
       </c>
       <c r="P28">
-        <v>1.093154828926289</v>
+        <v>0.6917726066623665</v>
       </c>
       <c r="Q28">
-        <v>1.093154828926289</v>
+        <v>0.6917726066623665</v>
       </c>
       <c r="R28">
-        <v>1.214799784459721</v>
+        <v>0.5524575400661886</v>
       </c>
       <c r="S28">
-        <v>1.214799784459721</v>
+        <v>0.5524575400661886</v>
       </c>
       <c r="T28">
-        <v>1.043205346935941</v>
+        <v>0.950283862996109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.171670708735053</v>
+      </c>
+      <c r="D29">
+        <v>0.6829619762315124</v>
+      </c>
+      <c r="E29">
+        <v>0.5823031783411339</v>
+      </c>
+      <c r="F29">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="G29">
+        <v>2.095498719596397</v>
+      </c>
+      <c r="H29">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="I29">
+        <v>2.095498719596397</v>
+      </c>
+      <c r="J29">
+        <v>1.168234183026325</v>
+      </c>
+      <c r="K29">
+        <v>1.368868778206159</v>
+      </c>
+      <c r="L29">
+        <v>1.168234183026325</v>
+      </c>
+      <c r="M29">
+        <v>1.631866451311361</v>
+      </c>
+      <c r="N29">
+        <v>1.631866451311361</v>
+      </c>
+      <c r="O29">
+        <v>1.315564959618078</v>
+      </c>
+      <c r="P29">
+        <v>1.544200560276294</v>
+      </c>
+      <c r="Q29">
+        <v>1.544200560276294</v>
+      </c>
+      <c r="R29">
+        <v>1.50036761475876</v>
+      </c>
+      <c r="S29">
+        <v>1.50036761475876</v>
+      </c>
+      <c r="T29">
+        <v>1.178256257356096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9032067946946786</v>
+      </c>
+      <c r="D30">
+        <v>1.045478939267442</v>
+      </c>
+      <c r="E30">
+        <v>1.03108186087466</v>
+      </c>
+      <c r="F30">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="G30">
+        <v>0.5302533347288919</v>
+      </c>
+      <c r="H30">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="I30">
+        <v>0.5302533347288919</v>
+      </c>
+      <c r="J30">
+        <v>1.169476500989954</v>
+      </c>
+      <c r="K30">
+        <v>1.57973465106002</v>
+      </c>
+      <c r="L30">
+        <v>1.169476500989954</v>
+      </c>
+      <c r="M30">
+        <v>0.8498649178594231</v>
+      </c>
+      <c r="N30">
+        <v>0.8498649178594231</v>
+      </c>
+      <c r="O30">
+        <v>0.9150695916620961</v>
+      </c>
+      <c r="P30">
+        <v>1.093154828926289</v>
+      </c>
+      <c r="Q30">
+        <v>1.093154828926289</v>
+      </c>
+      <c r="R30">
+        <v>1.214799784459721</v>
+      </c>
+      <c r="S30">
+        <v>1.214799784459721</v>
+      </c>
+      <c r="T30">
+        <v>1.043205346935941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.6217198804703993</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.128052335791717</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9168461871772715</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>2.830823979593102</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9260630537791296</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>2.830823979593102</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9260630537791296</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8232795871173796</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>2.830823979593102</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8232795871173796</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8746713204482546</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8746713204482546</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9591316588960753</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.526722206829871</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.526722206829871</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.852747650020679</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.852747650020679</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.207797503988167</v>
       </c>
     </row>
